--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_336.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_336.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC9630C6-3E34-4113-BCB0-F7C6F11E6621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28944AED-2FB0-4CD1-8FE7-836D833F6601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="368" yWindow="368" windowWidth="21599" windowHeight="12682" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
   <sheets>
     <sheet name="ev_charging_uc" sheetId="9" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4983" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5011" uniqueCount="518">
   <si>
     <t>UC_N</t>
   </si>
@@ -1569,10 +1569,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>m01ah09,m01b0121h09,m01b0121h16,m02ah18,m03ah18,m05ah12,m05ah18,m07c0716h18,m08ah07,m10ah15,m11ah12,m12ah18,m01ah08,m02ah08,m02ah14,m03ah17,m05ah17,m06ah15,m07ah15,m08ah11,m09ah07,m09ah14,m01ah14,m01b0121h15,m01b0121h17,m02ah09,m02ah10,m02ah12,m03ah08,m03ah09,m05ah14,m07c0716h16,m11ah08,m11ah15,m12ah17,m01b0121h07,m03ah13,m07ah10,m07ah18,m07c0716h14,m08ah08,m08ah10,m11ah14,m12ah08,m01ah15,m01ah18,m01b0121h14,m02ah07,m04ah08,m04ah14,m05ah07,m05ah13,m07c0716h07,m07c0716h15,m08ah18,m10ah18,m12ah11,m03ah16,m04ah18,m05ah10,m07ah17,m07c0716h09,m12ah07,m01b0121h08,m02ah15,m04ah17,m07ah09,m07c0716h17,m10ah12,m10ah14,m11ah09,m11ah13,m01ah11,m01b0121h10,m03ah12,m04ah11,m04ah12,m06ah12,m06ah16,m07c0716h10,m07c0716h12,m08ah09,m09ah15,m11ah10,m12ah12,m01ah17,m02ah13,m05ah16,m06ah14,m07c0716h11,m09ah11,m09ah18,m10ah09,m10ah13,m11ah16,m12ah15,m01ah07,m02ah11,m05ah09,m05ah15,m07ah12,m09ah10,m11ah11,m11ah18,m12ah14,m03ah15,m04ah13,m06ah09,m07ah07,m07ah16,m09ah13,m01b0121h12,m03ah07,m05ah11,m06ah07,m06ah10,m06ah18,m07ah08,m08ah17,m09ah17,m10ah08,m01b0121h13,m03ah14,m04ah09,m04ah15,m06ah08,m07c0716h08,m08ah13,m08ah14,m09ah08,m09ah09,m09ah16,m10ah07,m10ah16,m10ah17,m12ah09,m01ah12,m01ah13,m01b0121h18,m04ah10,m04ah16,m05ah08,m06ah13,m07ah13,m09ah12,m10ah10,m10ah11,m11ah07,m01ah10,m01ah16,m03ah10,m03ah11,m04ah07,m06ah17,m08ah12,m11ah17,m12ah10,m12ah16,m01b0121h11,m02ah16,m02ah17,m06ah11,m07ah11,m07ah14,m07c0716h13,m08ah15,m08ah16,m12ah13</t>
-  </si>
-  <si>
-    <t>m01b0121h02,m01b0121h05,m01b0121h20,m06ah03,m07ah04,m07c0716h19,m08ah02,m08ah03,m08ah21,m09ah05,m11ah05,m12ah21,m01b0121h22,m03ah22,m04ah05,m06ah04,m06ah19,m06ah20,m07c0716h04,m07c0716h24,m09ah20,m11ah19,m12ah22,m01ah02,m01ah19,m01ah22,m01b0121h23,m02ah05,m03ah01,m04ah23,m05ah04,m08ah04,m09ah01,m12ah06,m12ah19,m01ah03,m01ah21,m01b0121h19,m01b0121h24,m04ah24,m05ah21,m05ah24,m07ah02,m09ah23,m10ah04,m10ah22,m10ah24,m11ah03,m02ah03,m02ah04,m02ah22,m07ah01,m07ah20,m07c0716h01,m09ah22,m09ah24,m10ah21,m11ah02,m12ah20,m12ah23,m02ah02,m02ah19,m02ah21,m03ah20,m07ah19,m07ah23,m07c0716h20,m08ah19,m08ah22,m09ah06,m10ah20,m11ah06,m11ah21,m01ah23,m03ah02,m03ah24,m06ah24,m07ah05,m09ah03,m11ah22,m12ah24,m07ah03,m07ah21,m10ah03,m12ah05,m01b0121h03,m02ah20,m03ah23,m04ah22,m07c0716h22,m08ah01,m08ah23,m10ah02,m11ah01,m11ah04,m01ah06,m01b0121h01,m02ah06,m03ah03,m04ah06,m05ah03,m05ah20,m06ah01,m06ah23,m07ah22,m09ah21,m12ah04,m02ah01,m02ah24,m03ah19,m05ah02,m05ah19,m06ah21,m07c0716h05,m08ah24,m12ah03,m01ah01,m01ah05,m02ah23,m04ah01,m04ah04,m06ah02,m07ah06,m07c0716h02,m07c0716h23,m09ah02,m09ah04,m10ah05,m10ah23,m11ah20,m11ah23,m01ah20,m03ah05,m04ah03,m04ah19,m04ah21,m05ah23,m07ah24,m07c0716h03,m07c0716h21,m11ah24,m01ah04,m03ah04,m04ah20,m06ah05,m09ah19,m01b0121h04,m01b0121h06,m01b0121h21,m03ah06,m03ah21,m04ah02,m05ah01,m05ah06,m07c0716h06,m10ah06,m10ah19,m12ah01,m01ah24,m05ah05,m05ah22,m06ah06,m06ah22,m08ah05,m08ah06,m08ah20,m10ah01,m12ah02</t>
+    <t>m01ah09,m01b0121h09,m01b0121h16,m02ah18,m03ah18,m05ah12,m05ah18,m07c0716h18,m08ah07,m10ah15,m11ah12,m12ah18,m03ah15,m04ah13,m06ah09,m07ah07,m07ah16,m09ah13,m01b0121h13,m03ah14,m04ah09,m04ah15,m06ah08,m07c0716h08,m08ah13,m08ah14,m09ah08,m09ah09,m09ah16,m10ah07,m10ah16,m10ah17,m12ah09,m01ah14,m01b0121h15,m01b0121h17,m02ah09,m02ah10,m02ah12,m03ah08,m03ah09,m05ah14,m07c0716h16,m11ah08,m11ah15,m12ah17,m03ah16,m04ah18,m05ah10,m07ah17,m07c0716h09,m12ah07,m01ah15,m01ah18,m01b0121h14,m02ah07,m04ah08,m04ah14,m05ah07,m05ah13,m07c0716h07,m07c0716h15,m08ah18,m10ah18,m12ah11,m01ah11,m01b0121h10,m03ah12,m04ah11,m04ah12,m06ah12,m06ah16,m07c0716h10,m07c0716h12,m08ah09,m09ah15,m11ah10,m12ah12,m01ah07,m02ah11,m05ah09,m05ah15,m07ah12,m09ah10,m11ah11,m11ah18,m12ah14,m01ah08,m02ah08,m02ah14,m03ah17,m05ah17,m06ah15,m07ah15,m08ah11,m09ah07,m09ah14,m01ah10,m01ah16,m03ah10,m03ah11,m04ah07,m06ah17,m08ah12,m11ah17,m12ah10,m12ah16,m01b0121h08,m02ah15,m04ah17,m07ah09,m07c0716h17,m10ah12,m10ah14,m11ah09,m11ah13,m01b0121h12,m03ah07,m05ah11,m06ah07,m06ah10,m06ah18,m07ah08,m08ah17,m09ah17,m10ah08,m01ah12,m01ah13,m01b0121h18,m04ah10,m04ah16,m05ah08,m06ah13,m07ah13,m09ah12,m10ah10,m10ah11,m11ah07,m01b0121h07,m03ah13,m07ah10,m07ah18,m07c0716h14,m08ah08,m08ah10,m11ah14,m12ah08,m01ah17,m02ah13,m05ah16,m06ah14,m07c0716h11,m09ah11,m09ah18,m10ah09,m10ah13,m11ah16,m12ah15,m01b0121h11,m02ah16,m02ah17,m06ah11,m07ah11,m07ah14,m07c0716h13,m08ah15,m08ah16,m12ah13</t>
+  </si>
+  <si>
+    <t>m01b0121h02,m01b0121h05,m01b0121h20,m06ah03,m07ah04,m07c0716h19,m08ah02,m08ah03,m08ah21,m09ah05,m11ah05,m12ah21,m02ah01,m02ah24,m03ah19,m05ah02,m05ah19,m06ah21,m07c0716h05,m08ah24,m12ah03,m01ah20,m03ah05,m04ah03,m04ah19,m04ah21,m05ah23,m07ah24,m07c0716h03,m07c0716h21,m11ah24,m01ah02,m01ah19,m01ah22,m01b0121h23,m02ah05,m03ah01,m04ah23,m05ah04,m08ah04,m09ah01,m12ah06,m12ah19,m02ah02,m02ah19,m02ah21,m03ah20,m07ah19,m07ah23,m07c0716h20,m08ah19,m08ah22,m09ah06,m10ah20,m11ah06,m11ah21,m02ah03,m02ah04,m02ah22,m07ah01,m07ah20,m07c0716h01,m09ah22,m09ah24,m10ah21,m11ah02,m12ah20,m12ah23,m07ah03,m07ah21,m10ah03,m12ah05,m01ah06,m01b0121h01,m02ah06,m03ah03,m04ah06,m05ah03,m05ah20,m06ah01,m06ah23,m07ah22,m09ah21,m12ah04,m01b0121h22,m03ah22,m04ah05,m06ah04,m06ah19,m06ah20,m07c0716h04,m07c0716h24,m09ah20,m11ah19,m12ah22,m01b0121h04,m01b0121h06,m01b0121h21,m03ah06,m03ah21,m04ah02,m05ah01,m05ah06,m07c0716h06,m10ah06,m10ah19,m12ah01,m01ah23,m03ah02,m03ah24,m06ah24,m07ah05,m09ah03,m11ah22,m12ah24,m01ah01,m01ah05,m02ah23,m04ah01,m04ah04,m06ah02,m07ah06,m07c0716h02,m07c0716h23,m09ah02,m09ah04,m10ah05,m10ah23,m11ah20,m11ah23,m01ah04,m03ah04,m04ah20,m06ah05,m09ah19,m01ah03,m01ah21,m01b0121h19,m01b0121h24,m04ah24,m05ah21,m05ah24,m07ah02,m09ah23,m10ah04,m10ah22,m10ah24,m11ah03,m01b0121h03,m02ah20,m03ah23,m04ah22,m07c0716h22,m08ah01,m08ah23,m10ah02,m11ah01,m11ah04,m01ah24,m05ah05,m05ah22,m06ah06,m06ah22,m08ah05,m08ah06,m08ah20,m10ah01,m12ah02</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1582,6 +1582,18 @@
   </si>
   <si>
     <t>com_pkflx</t>
+  </si>
+  <si>
+    <t>ncap_afs</t>
+  </si>
+  <si>
+    <t>pset_ci</t>
+  </si>
+  <si>
+    <t>hydro</t>
+  </si>
+  <si>
+    <t>~TFM_INS-AT</t>
   </si>
 </sst>
 </file>
@@ -2131,7 +2143,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>m01b0121h02,m01b0121h05,m01b0121h20,m06ah03,m07ah04,m07c0716h19,m08ah02,m08ah03,m08ah21,m09ah05,m11ah05,m12ah21,m01b0121h22,m03ah22,m04ah05,m06ah04,m06ah19,m06ah20,m07c0716h04,m07c0716h24,m09ah20,m11ah19,m12ah22,m01ah02,m01ah19,m01ah22,m01b0121h23,m02ah05,m03ah01,m04ah23,m05ah04,m08ah04,m09ah01,m12ah06,m12ah19,m01ah03,m01ah21,m01b0121h19,m01b0121h24,m04ah24,m05ah21,m05ah24,m07ah02,m09ah23,m10ah04,m10ah22,m10ah24,m11ah03,m02ah03,m02ah04,m02ah22,m07ah01,m07ah20,m07c0716h01,m09ah22,m09ah24,m10ah21,m11ah02,m12ah20,m12ah23,m02ah02,m02ah19,m02ah21,m03ah20,m07ah19,m07ah23,m07c0716h20,m08ah19,m08ah22,m09ah06,m10ah20,m11ah06,m11ah21,m01ah23,m03ah02,m03ah24,m06ah24,m07ah05,m09ah03,m11ah22,m12ah24,m07ah03,m07ah21,m10ah03,m12ah05,m01b0121h03,m02ah20,m03ah23,m04ah22,m07c0716h22,m08ah01,m08ah23,m10ah02,m11ah01,m11ah04,m01ah06,m01b0121h01,m02ah06,m03ah03,m04ah06,m05ah03,m05ah20,m06ah01,m06ah23,m07ah22,m09ah21,m12ah04,m02ah01,m02ah24,m03ah19,m05ah02,m05ah19,m06ah21,m07c0716h05,m08ah24,m12ah03,m01ah01,m01ah05,m02ah23,m04ah01,m04ah04,m06ah02,m07ah06,m07c0716h02,m07c0716h23,m09ah02,m09ah04,m10ah05,m10ah23,m11ah20,m11ah23,m01ah20,m03ah05,m04ah03,m04ah19,m04ah21,m05ah23,m07ah24,m07c0716h03,m07c0716h21,m11ah24,m01ah04,m03ah04,m04ah20,m06ah05,m09ah19,m01b0121h04,m01b0121h06,m01b0121h21,m03ah06,m03ah21,m04ah02,m05ah01,m05ah06,m07c0716h06,m10ah06,m10ah19,m12ah01,m01ah24,m05ah05,m05ah22,m06ah06,m06ah22,m08ah05,m08ah06,m08ah20,m10ah01,m12ah02</v>
+        <v>m01b0121h02,m01b0121h05,m01b0121h20,m06ah03,m07ah04,m07c0716h19,m08ah02,m08ah03,m08ah21,m09ah05,m11ah05,m12ah21,m02ah01,m02ah24,m03ah19,m05ah02,m05ah19,m06ah21,m07c0716h05,m08ah24,m12ah03,m01ah20,m03ah05,m04ah03,m04ah19,m04ah21,m05ah23,m07ah24,m07c0716h03,m07c0716h21,m11ah24,m01ah02,m01ah19,m01ah22,m01b0121h23,m02ah05,m03ah01,m04ah23,m05ah04,m08ah04,m09ah01,m12ah06,m12ah19,m02ah02,m02ah19,m02ah21,m03ah20,m07ah19,m07ah23,m07c0716h20,m08ah19,m08ah22,m09ah06,m10ah20,m11ah06,m11ah21,m02ah03,m02ah04,m02ah22,m07ah01,m07ah20,m07c0716h01,m09ah22,m09ah24,m10ah21,m11ah02,m12ah20,m12ah23,m07ah03,m07ah21,m10ah03,m12ah05,m01ah06,m01b0121h01,m02ah06,m03ah03,m04ah06,m05ah03,m05ah20,m06ah01,m06ah23,m07ah22,m09ah21,m12ah04,m01b0121h22,m03ah22,m04ah05,m06ah04,m06ah19,m06ah20,m07c0716h04,m07c0716h24,m09ah20,m11ah19,m12ah22,m01b0121h04,m01b0121h06,m01b0121h21,m03ah06,m03ah21,m04ah02,m05ah01,m05ah06,m07c0716h06,m10ah06,m10ah19,m12ah01,m01ah23,m03ah02,m03ah24,m06ah24,m07ah05,m09ah03,m11ah22,m12ah24,m01ah01,m01ah05,m02ah23,m04ah01,m04ah04,m06ah02,m07ah06,m07c0716h02,m07c0716h23,m09ah02,m09ah04,m10ah05,m10ah23,m11ah20,m11ah23,m01ah04,m03ah04,m04ah20,m06ah05,m09ah19,m01ah03,m01ah21,m01b0121h19,m01b0121h24,m04ah24,m05ah21,m05ah24,m07ah02,m09ah23,m10ah04,m10ah22,m10ah24,m11ah03,m01b0121h03,m02ah20,m03ah23,m04ah22,m07c0716h22,m08ah01,m08ah23,m10ah02,m11ah01,m11ah04,m01ah24,m05ah05,m05ah22,m06ah06,m06ah22,m08ah05,m08ah06,m08ah20,m10ah01,m12ah02</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -2163,7 +2175,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>m01ah09,m01b0121h09,m01b0121h16,m02ah18,m03ah18,m05ah12,m05ah18,m07c0716h18,m08ah07,m10ah15,m11ah12,m12ah18,m01ah08,m02ah08,m02ah14,m03ah17,m05ah17,m06ah15,m07ah15,m08ah11,m09ah07,m09ah14,m01ah14,m01b0121h15,m01b0121h17,m02ah09,m02ah10,m02ah12,m03ah08,m03ah09,m05ah14,m07c0716h16,m11ah08,m11ah15,m12ah17,m01b0121h07,m03ah13,m07ah10,m07ah18,m07c0716h14,m08ah08,m08ah10,m11ah14,m12ah08,m01ah15,m01ah18,m01b0121h14,m02ah07,m04ah08,m04ah14,m05ah07,m05ah13,m07c0716h07,m07c0716h15,m08ah18,m10ah18,m12ah11,m03ah16,m04ah18,m05ah10,m07ah17,m07c0716h09,m12ah07,m01b0121h08,m02ah15,m04ah17,m07ah09,m07c0716h17,m10ah12,m10ah14,m11ah09,m11ah13,m01ah11,m01b0121h10,m03ah12,m04ah11,m04ah12,m06ah12,m06ah16,m07c0716h10,m07c0716h12,m08ah09,m09ah15,m11ah10,m12ah12,m01ah17,m02ah13,m05ah16,m06ah14,m07c0716h11,m09ah11,m09ah18,m10ah09,m10ah13,m11ah16,m12ah15,m01ah07,m02ah11,m05ah09,m05ah15,m07ah12,m09ah10,m11ah11,m11ah18,m12ah14,m03ah15,m04ah13,m06ah09,m07ah07,m07ah16,m09ah13,m01b0121h12,m03ah07,m05ah11,m06ah07,m06ah10,m06ah18,m07ah08,m08ah17,m09ah17,m10ah08,m01b0121h13,m03ah14,m04ah09,m04ah15,m06ah08,m07c0716h08,m08ah13,m08ah14,m09ah08,m09ah09,m09ah16,m10ah07,m10ah16,m10ah17,m12ah09,m01ah12,m01ah13,m01b0121h18,m04ah10,m04ah16,m05ah08,m06ah13,m07ah13,m09ah12,m10ah10,m10ah11,m11ah07,m01ah10,m01ah16,m03ah10,m03ah11,m04ah07,m06ah17,m08ah12,m11ah17,m12ah10,m12ah16,m01b0121h11,m02ah16,m02ah17,m06ah11,m07ah11,m07ah14,m07c0716h13,m08ah15,m08ah16,m12ah13</v>
+        <v>m01ah09,m01b0121h09,m01b0121h16,m02ah18,m03ah18,m05ah12,m05ah18,m07c0716h18,m08ah07,m10ah15,m11ah12,m12ah18,m03ah15,m04ah13,m06ah09,m07ah07,m07ah16,m09ah13,m01b0121h13,m03ah14,m04ah09,m04ah15,m06ah08,m07c0716h08,m08ah13,m08ah14,m09ah08,m09ah09,m09ah16,m10ah07,m10ah16,m10ah17,m12ah09,m01ah14,m01b0121h15,m01b0121h17,m02ah09,m02ah10,m02ah12,m03ah08,m03ah09,m05ah14,m07c0716h16,m11ah08,m11ah15,m12ah17,m03ah16,m04ah18,m05ah10,m07ah17,m07c0716h09,m12ah07,m01ah15,m01ah18,m01b0121h14,m02ah07,m04ah08,m04ah14,m05ah07,m05ah13,m07c0716h07,m07c0716h15,m08ah18,m10ah18,m12ah11,m01ah11,m01b0121h10,m03ah12,m04ah11,m04ah12,m06ah12,m06ah16,m07c0716h10,m07c0716h12,m08ah09,m09ah15,m11ah10,m12ah12,m01ah07,m02ah11,m05ah09,m05ah15,m07ah12,m09ah10,m11ah11,m11ah18,m12ah14,m01ah08,m02ah08,m02ah14,m03ah17,m05ah17,m06ah15,m07ah15,m08ah11,m09ah07,m09ah14,m01ah10,m01ah16,m03ah10,m03ah11,m04ah07,m06ah17,m08ah12,m11ah17,m12ah10,m12ah16,m01b0121h08,m02ah15,m04ah17,m07ah09,m07c0716h17,m10ah12,m10ah14,m11ah09,m11ah13,m01b0121h12,m03ah07,m05ah11,m06ah07,m06ah10,m06ah18,m07ah08,m08ah17,m09ah17,m10ah08,m01ah12,m01ah13,m01b0121h18,m04ah10,m04ah16,m05ah08,m06ah13,m07ah13,m09ah12,m10ah10,m10ah11,m11ah07,m01b0121h07,m03ah13,m07ah10,m07ah18,m07c0716h14,m08ah08,m08ah10,m11ah14,m12ah08,m01ah17,m02ah13,m05ah16,m06ah14,m07c0716h11,m09ah11,m09ah18,m10ah09,m10ah13,m11ah16,m12ah15,m01b0121h11,m02ah16,m02ah17,m06ah11,m07ah11,m07ah14,m07c0716h13,m08ah15,m08ah16,m12ah13</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2776,7 +2788,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{955150D2-E9A7-490D-8621-27BAFF8364AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29E60B1F-3CE0-4729-889E-8332BF216C88}">
   <dimension ref="B2:F75"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3441,22 +3453,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E8C1A52-047E-4884-AA80-70EAD9A75217}">
-  <dimension ref="B2:K339"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5A00F80-D845-4264-8545-B3724BA3216C}">
+  <dimension ref="B2:O339"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>504</v>
       </c>
       <c r="H2" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="M2" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>70</v>
       </c>
@@ -3481,8 +3496,17 @@
       <c r="K3" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="M3" t="s">
+        <v>70</v>
+      </c>
+      <c r="N3" t="s">
+        <v>514</v>
+      </c>
+      <c r="O3" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>166</v>
       </c>
@@ -3507,8 +3531,17 @@
       <c r="K4" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="M4" t="s">
+        <v>82</v>
+      </c>
+      <c r="N4">
+        <v>7.5520592318371105E-2</v>
+      </c>
+      <c r="O4" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>169</v>
       </c>
@@ -3533,8 +3566,17 @@
       <c r="K5" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="M5" t="s">
+        <v>87</v>
+      </c>
+      <c r="N5">
+        <v>0.13490282276723736</v>
+      </c>
+      <c r="O5" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>170</v>
       </c>
@@ -3559,8 +3601,17 @@
       <c r="K6" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="M6" t="s">
+        <v>92</v>
+      </c>
+      <c r="N6">
+        <v>0.11449560388708929</v>
+      </c>
+      <c r="O6" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>171</v>
       </c>
@@ -3585,8 +3636,17 @@
       <c r="K7" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="M7" t="s">
+        <v>94</v>
+      </c>
+      <c r="N7">
+        <v>9.3706617306802381E-2</v>
+      </c>
+      <c r="O7" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>172</v>
       </c>
@@ -3611,8 +3671,17 @@
       <c r="K8" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="M8" t="s">
+        <v>100</v>
+      </c>
+      <c r="N8">
+        <v>7.7845904673762137E-2</v>
+      </c>
+      <c r="O8" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>173</v>
       </c>
@@ -3637,8 +3706,17 @@
       <c r="K9" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="M9" t="s">
+        <v>89</v>
+      </c>
+      <c r="N9">
+        <v>0.15187413234613603</v>
+      </c>
+      <c r="O9" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>174</v>
       </c>
@@ -3663,8 +3741,17 @@
       <c r="K10" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="M10" t="s">
+        <v>76</v>
+      </c>
+      <c r="N10">
+        <v>7.895650161962052E-2</v>
+      </c>
+      <c r="O10" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>175</v>
       </c>
@@ -3689,8 +3776,17 @@
       <c r="K11" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="M11" t="s">
+        <v>85</v>
+      </c>
+      <c r="N11">
+        <v>9.2596020360943998E-2</v>
+      </c>
+      <c r="O11" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>176</v>
       </c>
@@ -3715,8 +3811,17 @@
       <c r="K12" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="M12" t="s">
+        <v>80</v>
+      </c>
+      <c r="N12">
+        <v>6.8752892179546485E-2</v>
+      </c>
+      <c r="O12" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>177</v>
       </c>
@@ -3741,8 +3846,17 @@
       <c r="K13" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="M13" t="s">
+        <v>84</v>
+      </c>
+      <c r="N13">
+        <v>0.13802637667746409</v>
+      </c>
+      <c r="O13" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>178</v>
       </c>
@@ -3767,8 +3881,17 @@
       <c r="K14" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="M14" t="s">
+        <v>98</v>
+      </c>
+      <c r="N14">
+        <v>8.4821841739935205E-2</v>
+      </c>
+      <c r="O14" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>179</v>
       </c>
@@ -3793,8 +3916,17 @@
       <c r="K15" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="M15" t="s">
+        <v>96</v>
+      </c>
+      <c r="N15">
+        <v>8.8500694123091125E-2</v>
+      </c>
+      <c r="O15" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
         <v>180</v>
       </c>
@@ -12224,7 +12356,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9729F8BC-017E-451A-8973-003AC0E0D8FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD6C099F-4A47-474B-B765-757359D7A700}">
   <dimension ref="B2:O647"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_336.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_336.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28944AED-2FB0-4CD1-8FE7-836D833F6601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A591AA6F-88AA-4E22-885C-D00673418211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1569,10 +1569,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>m01ah09,m01b0121h09,m01b0121h16,m02ah18,m03ah18,m05ah12,m05ah18,m07c0716h18,m08ah07,m10ah15,m11ah12,m12ah18,m03ah15,m04ah13,m06ah09,m07ah07,m07ah16,m09ah13,m01b0121h13,m03ah14,m04ah09,m04ah15,m06ah08,m07c0716h08,m08ah13,m08ah14,m09ah08,m09ah09,m09ah16,m10ah07,m10ah16,m10ah17,m12ah09,m01ah14,m01b0121h15,m01b0121h17,m02ah09,m02ah10,m02ah12,m03ah08,m03ah09,m05ah14,m07c0716h16,m11ah08,m11ah15,m12ah17,m03ah16,m04ah18,m05ah10,m07ah17,m07c0716h09,m12ah07,m01ah15,m01ah18,m01b0121h14,m02ah07,m04ah08,m04ah14,m05ah07,m05ah13,m07c0716h07,m07c0716h15,m08ah18,m10ah18,m12ah11,m01ah11,m01b0121h10,m03ah12,m04ah11,m04ah12,m06ah12,m06ah16,m07c0716h10,m07c0716h12,m08ah09,m09ah15,m11ah10,m12ah12,m01ah07,m02ah11,m05ah09,m05ah15,m07ah12,m09ah10,m11ah11,m11ah18,m12ah14,m01ah08,m02ah08,m02ah14,m03ah17,m05ah17,m06ah15,m07ah15,m08ah11,m09ah07,m09ah14,m01ah10,m01ah16,m03ah10,m03ah11,m04ah07,m06ah17,m08ah12,m11ah17,m12ah10,m12ah16,m01b0121h08,m02ah15,m04ah17,m07ah09,m07c0716h17,m10ah12,m10ah14,m11ah09,m11ah13,m01b0121h12,m03ah07,m05ah11,m06ah07,m06ah10,m06ah18,m07ah08,m08ah17,m09ah17,m10ah08,m01ah12,m01ah13,m01b0121h18,m04ah10,m04ah16,m05ah08,m06ah13,m07ah13,m09ah12,m10ah10,m10ah11,m11ah07,m01b0121h07,m03ah13,m07ah10,m07ah18,m07c0716h14,m08ah08,m08ah10,m11ah14,m12ah08,m01ah17,m02ah13,m05ah16,m06ah14,m07c0716h11,m09ah11,m09ah18,m10ah09,m10ah13,m11ah16,m12ah15,m01b0121h11,m02ah16,m02ah17,m06ah11,m07ah11,m07ah14,m07c0716h13,m08ah15,m08ah16,m12ah13</t>
-  </si>
-  <si>
-    <t>m01b0121h02,m01b0121h05,m01b0121h20,m06ah03,m07ah04,m07c0716h19,m08ah02,m08ah03,m08ah21,m09ah05,m11ah05,m12ah21,m02ah01,m02ah24,m03ah19,m05ah02,m05ah19,m06ah21,m07c0716h05,m08ah24,m12ah03,m01ah20,m03ah05,m04ah03,m04ah19,m04ah21,m05ah23,m07ah24,m07c0716h03,m07c0716h21,m11ah24,m01ah02,m01ah19,m01ah22,m01b0121h23,m02ah05,m03ah01,m04ah23,m05ah04,m08ah04,m09ah01,m12ah06,m12ah19,m02ah02,m02ah19,m02ah21,m03ah20,m07ah19,m07ah23,m07c0716h20,m08ah19,m08ah22,m09ah06,m10ah20,m11ah06,m11ah21,m02ah03,m02ah04,m02ah22,m07ah01,m07ah20,m07c0716h01,m09ah22,m09ah24,m10ah21,m11ah02,m12ah20,m12ah23,m07ah03,m07ah21,m10ah03,m12ah05,m01ah06,m01b0121h01,m02ah06,m03ah03,m04ah06,m05ah03,m05ah20,m06ah01,m06ah23,m07ah22,m09ah21,m12ah04,m01b0121h22,m03ah22,m04ah05,m06ah04,m06ah19,m06ah20,m07c0716h04,m07c0716h24,m09ah20,m11ah19,m12ah22,m01b0121h04,m01b0121h06,m01b0121h21,m03ah06,m03ah21,m04ah02,m05ah01,m05ah06,m07c0716h06,m10ah06,m10ah19,m12ah01,m01ah23,m03ah02,m03ah24,m06ah24,m07ah05,m09ah03,m11ah22,m12ah24,m01ah01,m01ah05,m02ah23,m04ah01,m04ah04,m06ah02,m07ah06,m07c0716h02,m07c0716h23,m09ah02,m09ah04,m10ah05,m10ah23,m11ah20,m11ah23,m01ah04,m03ah04,m04ah20,m06ah05,m09ah19,m01ah03,m01ah21,m01b0121h19,m01b0121h24,m04ah24,m05ah21,m05ah24,m07ah02,m09ah23,m10ah04,m10ah22,m10ah24,m11ah03,m01b0121h03,m02ah20,m03ah23,m04ah22,m07c0716h22,m08ah01,m08ah23,m10ah02,m11ah01,m11ah04,m01ah24,m05ah05,m05ah22,m06ah06,m06ah22,m08ah05,m08ah06,m08ah20,m10ah01,m12ah02</t>
+    <t>m01ah09,m01b0121h09,m01b0121h16,m02ah18,m03ah18,m05ah12,m05ah18,m07c0716h18,m08ah07,m10ah15,m11ah12,m12ah18,m01b0121h12,m03ah07,m05ah11,m06ah07,m06ah10,m06ah18,m07ah08,m08ah17,m09ah17,m10ah08,m01ah10,m01ah16,m03ah10,m03ah11,m04ah07,m06ah17,m08ah12,m11ah17,m12ah10,m12ah16,m01b0121h11,m02ah16,m02ah17,m06ah11,m07ah11,m07ah14,m07c0716h13,m08ah15,m08ah16,m12ah13,m01b0121h07,m03ah13,m07ah10,m07ah18,m07c0716h14,m08ah08,m08ah10,m11ah14,m12ah08,m01ah07,m02ah11,m05ah09,m05ah15,m07ah12,m09ah10,m11ah11,m11ah18,m12ah14,m01ah15,m01ah18,m01b0121h14,m02ah07,m04ah08,m04ah14,m05ah07,m05ah13,m07c0716h07,m07c0716h15,m08ah18,m10ah18,m12ah11,m01b0121h08,m02ah15,m04ah17,m07ah09,m07c0716h17,m10ah12,m10ah14,m11ah09,m11ah13,m01ah17,m02ah13,m05ah16,m06ah14,m07c0716h11,m09ah11,m09ah18,m10ah09,m10ah13,m11ah16,m12ah15,m01ah08,m02ah08,m02ah14,m03ah17,m05ah17,m06ah15,m07ah15,m08ah11,m09ah07,m09ah14,m01b0121h13,m03ah14,m04ah09,m04ah15,m06ah08,m07c0716h08,m08ah13,m08ah14,m09ah08,m09ah09,m09ah16,m10ah07,m10ah16,m10ah17,m12ah09,m01ah14,m01b0121h15,m01b0121h17,m02ah09,m02ah10,m02ah12,m03ah08,m03ah09,m05ah14,m07c0716h16,m11ah08,m11ah15,m12ah17,m03ah15,m04ah13,m06ah09,m07ah07,m07ah16,m09ah13,m01ah12,m01ah13,m01b0121h18,m04ah10,m04ah16,m05ah08,m06ah13,m07ah13,m09ah12,m10ah10,m10ah11,m11ah07,m03ah16,m04ah18,m05ah10,m07ah17,m07c0716h09,m12ah07,m01ah11,m01b0121h10,m03ah12,m04ah11,m04ah12,m06ah12,m06ah16,m07c0716h10,m07c0716h12,m08ah09,m09ah15,m11ah10,m12ah12</t>
+  </si>
+  <si>
+    <t>m01b0121h02,m01b0121h05,m01b0121h20,m06ah03,m07ah04,m07c0716h19,m08ah02,m08ah03,m08ah21,m09ah05,m11ah05,m12ah21,m01ah01,m01ah05,m02ah23,m04ah01,m04ah04,m06ah02,m07ah06,m07c0716h02,m07c0716h23,m09ah02,m09ah04,m10ah05,m10ah23,m11ah20,m11ah23,m01b0121h04,m01b0121h06,m01b0121h21,m03ah06,m03ah21,m04ah02,m05ah01,m05ah06,m07c0716h06,m10ah06,m10ah19,m12ah01,m01ah24,m05ah05,m05ah22,m06ah06,m06ah22,m08ah05,m08ah06,m08ah20,m10ah01,m12ah02,m01ah03,m01ah21,m01b0121h19,m01b0121h24,m04ah24,m05ah21,m05ah24,m07ah02,m09ah23,m10ah04,m10ah22,m10ah24,m11ah03,m01ah06,m01b0121h01,m02ah06,m03ah03,m04ah06,m05ah03,m05ah20,m06ah01,m06ah23,m07ah22,m09ah21,m12ah04,m02ah03,m02ah04,m02ah22,m07ah01,m07ah20,m07c0716h01,m09ah22,m09ah24,m10ah21,m11ah02,m12ah20,m12ah23,m01ah23,m03ah02,m03ah24,m06ah24,m07ah05,m09ah03,m11ah22,m12ah24,m01b0121h03,m02ah20,m03ah23,m04ah22,m07c0716h22,m08ah01,m08ah23,m10ah02,m11ah01,m11ah04,m01b0121h22,m03ah22,m04ah05,m06ah04,m06ah19,m06ah20,m07c0716h04,m07c0716h24,m09ah20,m11ah19,m12ah22,m01ah20,m03ah05,m04ah03,m04ah19,m04ah21,m05ah23,m07ah24,m07c0716h03,m07c0716h21,m11ah24,m01ah02,m01ah19,m01ah22,m01b0121h23,m02ah05,m03ah01,m04ah23,m05ah04,m08ah04,m09ah01,m12ah06,m12ah19,m02ah01,m02ah24,m03ah19,m05ah02,m05ah19,m06ah21,m07c0716h05,m08ah24,m12ah03,m01ah04,m03ah04,m04ah20,m06ah05,m09ah19,m02ah02,m02ah19,m02ah21,m03ah20,m07ah19,m07ah23,m07c0716h20,m08ah19,m08ah22,m09ah06,m10ah20,m11ah06,m11ah21,m07ah03,m07ah21,m10ah03,m12ah05</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -2143,7 +2143,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>m01b0121h02,m01b0121h05,m01b0121h20,m06ah03,m07ah04,m07c0716h19,m08ah02,m08ah03,m08ah21,m09ah05,m11ah05,m12ah21,m02ah01,m02ah24,m03ah19,m05ah02,m05ah19,m06ah21,m07c0716h05,m08ah24,m12ah03,m01ah20,m03ah05,m04ah03,m04ah19,m04ah21,m05ah23,m07ah24,m07c0716h03,m07c0716h21,m11ah24,m01ah02,m01ah19,m01ah22,m01b0121h23,m02ah05,m03ah01,m04ah23,m05ah04,m08ah04,m09ah01,m12ah06,m12ah19,m02ah02,m02ah19,m02ah21,m03ah20,m07ah19,m07ah23,m07c0716h20,m08ah19,m08ah22,m09ah06,m10ah20,m11ah06,m11ah21,m02ah03,m02ah04,m02ah22,m07ah01,m07ah20,m07c0716h01,m09ah22,m09ah24,m10ah21,m11ah02,m12ah20,m12ah23,m07ah03,m07ah21,m10ah03,m12ah05,m01ah06,m01b0121h01,m02ah06,m03ah03,m04ah06,m05ah03,m05ah20,m06ah01,m06ah23,m07ah22,m09ah21,m12ah04,m01b0121h22,m03ah22,m04ah05,m06ah04,m06ah19,m06ah20,m07c0716h04,m07c0716h24,m09ah20,m11ah19,m12ah22,m01b0121h04,m01b0121h06,m01b0121h21,m03ah06,m03ah21,m04ah02,m05ah01,m05ah06,m07c0716h06,m10ah06,m10ah19,m12ah01,m01ah23,m03ah02,m03ah24,m06ah24,m07ah05,m09ah03,m11ah22,m12ah24,m01ah01,m01ah05,m02ah23,m04ah01,m04ah04,m06ah02,m07ah06,m07c0716h02,m07c0716h23,m09ah02,m09ah04,m10ah05,m10ah23,m11ah20,m11ah23,m01ah04,m03ah04,m04ah20,m06ah05,m09ah19,m01ah03,m01ah21,m01b0121h19,m01b0121h24,m04ah24,m05ah21,m05ah24,m07ah02,m09ah23,m10ah04,m10ah22,m10ah24,m11ah03,m01b0121h03,m02ah20,m03ah23,m04ah22,m07c0716h22,m08ah01,m08ah23,m10ah02,m11ah01,m11ah04,m01ah24,m05ah05,m05ah22,m06ah06,m06ah22,m08ah05,m08ah06,m08ah20,m10ah01,m12ah02</v>
+        <v>m01b0121h02,m01b0121h05,m01b0121h20,m06ah03,m07ah04,m07c0716h19,m08ah02,m08ah03,m08ah21,m09ah05,m11ah05,m12ah21,m01ah01,m01ah05,m02ah23,m04ah01,m04ah04,m06ah02,m07ah06,m07c0716h02,m07c0716h23,m09ah02,m09ah04,m10ah05,m10ah23,m11ah20,m11ah23,m01b0121h04,m01b0121h06,m01b0121h21,m03ah06,m03ah21,m04ah02,m05ah01,m05ah06,m07c0716h06,m10ah06,m10ah19,m12ah01,m01ah24,m05ah05,m05ah22,m06ah06,m06ah22,m08ah05,m08ah06,m08ah20,m10ah01,m12ah02,m01ah03,m01ah21,m01b0121h19,m01b0121h24,m04ah24,m05ah21,m05ah24,m07ah02,m09ah23,m10ah04,m10ah22,m10ah24,m11ah03,m01ah06,m01b0121h01,m02ah06,m03ah03,m04ah06,m05ah03,m05ah20,m06ah01,m06ah23,m07ah22,m09ah21,m12ah04,m02ah03,m02ah04,m02ah22,m07ah01,m07ah20,m07c0716h01,m09ah22,m09ah24,m10ah21,m11ah02,m12ah20,m12ah23,m01ah23,m03ah02,m03ah24,m06ah24,m07ah05,m09ah03,m11ah22,m12ah24,m01b0121h03,m02ah20,m03ah23,m04ah22,m07c0716h22,m08ah01,m08ah23,m10ah02,m11ah01,m11ah04,m01b0121h22,m03ah22,m04ah05,m06ah04,m06ah19,m06ah20,m07c0716h04,m07c0716h24,m09ah20,m11ah19,m12ah22,m01ah20,m03ah05,m04ah03,m04ah19,m04ah21,m05ah23,m07ah24,m07c0716h03,m07c0716h21,m11ah24,m01ah02,m01ah19,m01ah22,m01b0121h23,m02ah05,m03ah01,m04ah23,m05ah04,m08ah04,m09ah01,m12ah06,m12ah19,m02ah01,m02ah24,m03ah19,m05ah02,m05ah19,m06ah21,m07c0716h05,m08ah24,m12ah03,m01ah04,m03ah04,m04ah20,m06ah05,m09ah19,m02ah02,m02ah19,m02ah21,m03ah20,m07ah19,m07ah23,m07c0716h20,m08ah19,m08ah22,m09ah06,m10ah20,m11ah06,m11ah21,m07ah03,m07ah21,m10ah03,m12ah05</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -2175,7 +2175,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>m01ah09,m01b0121h09,m01b0121h16,m02ah18,m03ah18,m05ah12,m05ah18,m07c0716h18,m08ah07,m10ah15,m11ah12,m12ah18,m03ah15,m04ah13,m06ah09,m07ah07,m07ah16,m09ah13,m01b0121h13,m03ah14,m04ah09,m04ah15,m06ah08,m07c0716h08,m08ah13,m08ah14,m09ah08,m09ah09,m09ah16,m10ah07,m10ah16,m10ah17,m12ah09,m01ah14,m01b0121h15,m01b0121h17,m02ah09,m02ah10,m02ah12,m03ah08,m03ah09,m05ah14,m07c0716h16,m11ah08,m11ah15,m12ah17,m03ah16,m04ah18,m05ah10,m07ah17,m07c0716h09,m12ah07,m01ah15,m01ah18,m01b0121h14,m02ah07,m04ah08,m04ah14,m05ah07,m05ah13,m07c0716h07,m07c0716h15,m08ah18,m10ah18,m12ah11,m01ah11,m01b0121h10,m03ah12,m04ah11,m04ah12,m06ah12,m06ah16,m07c0716h10,m07c0716h12,m08ah09,m09ah15,m11ah10,m12ah12,m01ah07,m02ah11,m05ah09,m05ah15,m07ah12,m09ah10,m11ah11,m11ah18,m12ah14,m01ah08,m02ah08,m02ah14,m03ah17,m05ah17,m06ah15,m07ah15,m08ah11,m09ah07,m09ah14,m01ah10,m01ah16,m03ah10,m03ah11,m04ah07,m06ah17,m08ah12,m11ah17,m12ah10,m12ah16,m01b0121h08,m02ah15,m04ah17,m07ah09,m07c0716h17,m10ah12,m10ah14,m11ah09,m11ah13,m01b0121h12,m03ah07,m05ah11,m06ah07,m06ah10,m06ah18,m07ah08,m08ah17,m09ah17,m10ah08,m01ah12,m01ah13,m01b0121h18,m04ah10,m04ah16,m05ah08,m06ah13,m07ah13,m09ah12,m10ah10,m10ah11,m11ah07,m01b0121h07,m03ah13,m07ah10,m07ah18,m07c0716h14,m08ah08,m08ah10,m11ah14,m12ah08,m01ah17,m02ah13,m05ah16,m06ah14,m07c0716h11,m09ah11,m09ah18,m10ah09,m10ah13,m11ah16,m12ah15,m01b0121h11,m02ah16,m02ah17,m06ah11,m07ah11,m07ah14,m07c0716h13,m08ah15,m08ah16,m12ah13</v>
+        <v>m01ah09,m01b0121h09,m01b0121h16,m02ah18,m03ah18,m05ah12,m05ah18,m07c0716h18,m08ah07,m10ah15,m11ah12,m12ah18,m01b0121h12,m03ah07,m05ah11,m06ah07,m06ah10,m06ah18,m07ah08,m08ah17,m09ah17,m10ah08,m01ah10,m01ah16,m03ah10,m03ah11,m04ah07,m06ah17,m08ah12,m11ah17,m12ah10,m12ah16,m01b0121h11,m02ah16,m02ah17,m06ah11,m07ah11,m07ah14,m07c0716h13,m08ah15,m08ah16,m12ah13,m01b0121h07,m03ah13,m07ah10,m07ah18,m07c0716h14,m08ah08,m08ah10,m11ah14,m12ah08,m01ah07,m02ah11,m05ah09,m05ah15,m07ah12,m09ah10,m11ah11,m11ah18,m12ah14,m01ah15,m01ah18,m01b0121h14,m02ah07,m04ah08,m04ah14,m05ah07,m05ah13,m07c0716h07,m07c0716h15,m08ah18,m10ah18,m12ah11,m01b0121h08,m02ah15,m04ah17,m07ah09,m07c0716h17,m10ah12,m10ah14,m11ah09,m11ah13,m01ah17,m02ah13,m05ah16,m06ah14,m07c0716h11,m09ah11,m09ah18,m10ah09,m10ah13,m11ah16,m12ah15,m01ah08,m02ah08,m02ah14,m03ah17,m05ah17,m06ah15,m07ah15,m08ah11,m09ah07,m09ah14,m01b0121h13,m03ah14,m04ah09,m04ah15,m06ah08,m07c0716h08,m08ah13,m08ah14,m09ah08,m09ah09,m09ah16,m10ah07,m10ah16,m10ah17,m12ah09,m01ah14,m01b0121h15,m01b0121h17,m02ah09,m02ah10,m02ah12,m03ah08,m03ah09,m05ah14,m07c0716h16,m11ah08,m11ah15,m12ah17,m03ah15,m04ah13,m06ah09,m07ah07,m07ah16,m09ah13,m01ah12,m01ah13,m01b0121h18,m04ah10,m04ah16,m05ah08,m06ah13,m07ah13,m09ah12,m10ah10,m10ah11,m11ah07,m03ah16,m04ah18,m05ah10,m07ah17,m07c0716h09,m12ah07,m01ah11,m01b0121h10,m03ah12,m04ah11,m04ah12,m06ah12,m06ah16,m07c0716h10,m07c0716h12,m08ah09,m09ah15,m11ah10,m12ah12</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2788,7 +2788,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29E60B1F-3CE0-4729-889E-8332BF216C88}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E46A013-A9A0-4FC6-8E20-D604EF6D3B88}">
   <dimension ref="B2:F75"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3453,7 +3453,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5A00F80-D845-4264-8545-B3724BA3216C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E071872A-90CA-4FCA-B2F3-0C46B449BF01}">
   <dimension ref="B2:O339"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3535,7 +3535,7 @@
         <v>82</v>
       </c>
       <c r="N4">
-        <v>7.5520592318371105E-2</v>
+        <v>7.5520592318371119E-2</v>
       </c>
       <c r="O4" t="s">
         <v>516</v>
@@ -3567,10 +3567,10 @@
         <v>168</v>
       </c>
       <c r="M5" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="N5">
-        <v>0.13490282276723736</v>
+        <v>7.7845904673762151E-2</v>
       </c>
       <c r="O5" t="s">
         <v>516</v>
@@ -3602,10 +3602,10 @@
         <v>168</v>
       </c>
       <c r="M6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="N6">
-        <v>0.11449560388708929</v>
+        <v>9.3706617306802395E-2</v>
       </c>
       <c r="O6" t="s">
         <v>516</v>
@@ -3637,10 +3637,10 @@
         <v>168</v>
       </c>
       <c r="M7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="N7">
-        <v>9.3706617306802381E-2</v>
+        <v>8.8500694123091153E-2</v>
       </c>
       <c r="O7" t="s">
         <v>516</v>
@@ -3672,10 +3672,10 @@
         <v>168</v>
       </c>
       <c r="M8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N8">
-        <v>7.7845904673762137E-2</v>
+        <v>8.4821841739935219E-2</v>
       </c>
       <c r="O8" t="s">
         <v>516</v>
@@ -3707,10 +3707,10 @@
         <v>168</v>
       </c>
       <c r="M9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="N9">
-        <v>0.15187413234613603</v>
+        <v>0.13490282276723739</v>
       </c>
       <c r="O9" t="s">
         <v>516</v>
@@ -3742,10 +3742,10 @@
         <v>168</v>
       </c>
       <c r="M10" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="N10">
-        <v>7.895650161962052E-2</v>
+        <v>9.2596020360944012E-2</v>
       </c>
       <c r="O10" t="s">
         <v>516</v>
@@ -3777,10 +3777,10 @@
         <v>168</v>
       </c>
       <c r="M11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N11">
-        <v>9.2596020360943998E-2</v>
+        <v>0.13802637667746412</v>
       </c>
       <c r="O11" t="s">
         <v>516</v>
@@ -3815,7 +3815,7 @@
         <v>80</v>
       </c>
       <c r="N12">
-        <v>6.8752892179546485E-2</v>
+        <v>6.8752892179546499E-2</v>
       </c>
       <c r="O12" t="s">
         <v>516</v>
@@ -3847,10 +3847,10 @@
         <v>168</v>
       </c>
       <c r="M13" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="N13">
-        <v>0.13802637667746409</v>
+        <v>7.8956501619620548E-2</v>
       </c>
       <c r="O13" t="s">
         <v>516</v>
@@ -3882,10 +3882,10 @@
         <v>168</v>
       </c>
       <c r="M14" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="N14">
-        <v>8.4821841739935205E-2</v>
+        <v>0.11449560388708931</v>
       </c>
       <c r="O14" t="s">
         <v>516</v>
@@ -3917,10 +3917,10 @@
         <v>168</v>
       </c>
       <c r="M15" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="N15">
-        <v>8.8500694123091125E-2</v>
+        <v>0.15187413234613606</v>
       </c>
       <c r="O15" t="s">
         <v>516</v>
@@ -12356,7 +12356,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD6C099F-4A47-474B-B765-757359D7A700}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34C188E8-5ED3-477A-AB05-589C484DA6D6}">
   <dimension ref="B2:O647"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_336.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_336.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A591AA6F-88AA-4E22-885C-D00673418211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F290F0-2368-4C84-9A00-29BFE3A8AEEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1569,10 +1569,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>m01ah09,m01b0121h09,m01b0121h16,m02ah18,m03ah18,m05ah12,m05ah18,m07c0716h18,m08ah07,m10ah15,m11ah12,m12ah18,m01b0121h12,m03ah07,m05ah11,m06ah07,m06ah10,m06ah18,m07ah08,m08ah17,m09ah17,m10ah08,m01ah10,m01ah16,m03ah10,m03ah11,m04ah07,m06ah17,m08ah12,m11ah17,m12ah10,m12ah16,m01b0121h11,m02ah16,m02ah17,m06ah11,m07ah11,m07ah14,m07c0716h13,m08ah15,m08ah16,m12ah13,m01b0121h07,m03ah13,m07ah10,m07ah18,m07c0716h14,m08ah08,m08ah10,m11ah14,m12ah08,m01ah07,m02ah11,m05ah09,m05ah15,m07ah12,m09ah10,m11ah11,m11ah18,m12ah14,m01ah15,m01ah18,m01b0121h14,m02ah07,m04ah08,m04ah14,m05ah07,m05ah13,m07c0716h07,m07c0716h15,m08ah18,m10ah18,m12ah11,m01b0121h08,m02ah15,m04ah17,m07ah09,m07c0716h17,m10ah12,m10ah14,m11ah09,m11ah13,m01ah17,m02ah13,m05ah16,m06ah14,m07c0716h11,m09ah11,m09ah18,m10ah09,m10ah13,m11ah16,m12ah15,m01ah08,m02ah08,m02ah14,m03ah17,m05ah17,m06ah15,m07ah15,m08ah11,m09ah07,m09ah14,m01b0121h13,m03ah14,m04ah09,m04ah15,m06ah08,m07c0716h08,m08ah13,m08ah14,m09ah08,m09ah09,m09ah16,m10ah07,m10ah16,m10ah17,m12ah09,m01ah14,m01b0121h15,m01b0121h17,m02ah09,m02ah10,m02ah12,m03ah08,m03ah09,m05ah14,m07c0716h16,m11ah08,m11ah15,m12ah17,m03ah15,m04ah13,m06ah09,m07ah07,m07ah16,m09ah13,m01ah12,m01ah13,m01b0121h18,m04ah10,m04ah16,m05ah08,m06ah13,m07ah13,m09ah12,m10ah10,m10ah11,m11ah07,m03ah16,m04ah18,m05ah10,m07ah17,m07c0716h09,m12ah07,m01ah11,m01b0121h10,m03ah12,m04ah11,m04ah12,m06ah12,m06ah16,m07c0716h10,m07c0716h12,m08ah09,m09ah15,m11ah10,m12ah12</t>
-  </si>
-  <si>
-    <t>m01b0121h02,m01b0121h05,m01b0121h20,m06ah03,m07ah04,m07c0716h19,m08ah02,m08ah03,m08ah21,m09ah05,m11ah05,m12ah21,m01ah01,m01ah05,m02ah23,m04ah01,m04ah04,m06ah02,m07ah06,m07c0716h02,m07c0716h23,m09ah02,m09ah04,m10ah05,m10ah23,m11ah20,m11ah23,m01b0121h04,m01b0121h06,m01b0121h21,m03ah06,m03ah21,m04ah02,m05ah01,m05ah06,m07c0716h06,m10ah06,m10ah19,m12ah01,m01ah24,m05ah05,m05ah22,m06ah06,m06ah22,m08ah05,m08ah06,m08ah20,m10ah01,m12ah02,m01ah03,m01ah21,m01b0121h19,m01b0121h24,m04ah24,m05ah21,m05ah24,m07ah02,m09ah23,m10ah04,m10ah22,m10ah24,m11ah03,m01ah06,m01b0121h01,m02ah06,m03ah03,m04ah06,m05ah03,m05ah20,m06ah01,m06ah23,m07ah22,m09ah21,m12ah04,m02ah03,m02ah04,m02ah22,m07ah01,m07ah20,m07c0716h01,m09ah22,m09ah24,m10ah21,m11ah02,m12ah20,m12ah23,m01ah23,m03ah02,m03ah24,m06ah24,m07ah05,m09ah03,m11ah22,m12ah24,m01b0121h03,m02ah20,m03ah23,m04ah22,m07c0716h22,m08ah01,m08ah23,m10ah02,m11ah01,m11ah04,m01b0121h22,m03ah22,m04ah05,m06ah04,m06ah19,m06ah20,m07c0716h04,m07c0716h24,m09ah20,m11ah19,m12ah22,m01ah20,m03ah05,m04ah03,m04ah19,m04ah21,m05ah23,m07ah24,m07c0716h03,m07c0716h21,m11ah24,m01ah02,m01ah19,m01ah22,m01b0121h23,m02ah05,m03ah01,m04ah23,m05ah04,m08ah04,m09ah01,m12ah06,m12ah19,m02ah01,m02ah24,m03ah19,m05ah02,m05ah19,m06ah21,m07c0716h05,m08ah24,m12ah03,m01ah04,m03ah04,m04ah20,m06ah05,m09ah19,m02ah02,m02ah19,m02ah21,m03ah20,m07ah19,m07ah23,m07c0716h20,m08ah19,m08ah22,m09ah06,m10ah20,m11ah06,m11ah21,m07ah03,m07ah21,m10ah03,m12ah05</t>
+    <t>m03ah16,m04ah18,m05ah10,m07ah17,m07c0716h09,m12ah07,m01ah12,m01ah13,m01b0121h18,m04ah10,m04ah16,m05ah08,m06ah13,m07ah13,m09ah12,m10ah10,m10ah11,m11ah07,m01ah10,m01ah16,m03ah10,m03ah11,m04ah07,m06ah17,m08ah12,m11ah17,m12ah10,m12ah16,m01ah15,m01ah18,m01b0121h14,m02ah07,m04ah08,m04ah14,m05ah07,m05ah13,m07c0716h07,m07c0716h15,m08ah18,m10ah18,m12ah11,m01ah11,m01b0121h10,m03ah12,m04ah11,m04ah12,m06ah12,m06ah16,m07c0716h10,m07c0716h12,m08ah09,m09ah15,m11ah10,m12ah12,m01ah17,m02ah13,m05ah16,m06ah14,m07c0716h11,m09ah11,m09ah18,m10ah09,m10ah13,m11ah16,m12ah15,m01b0121h11,m02ah16,m02ah17,m06ah11,m07ah11,m07ah14,m07c0716h13,m08ah15,m08ah16,m12ah13,m01ah07,m02ah11,m05ah09,m05ah15,m07ah12,m09ah10,m11ah11,m11ah18,m12ah14,m01ah08,m02ah08,m02ah14,m03ah17,m05ah17,m06ah15,m07ah15,m08ah11,m09ah07,m09ah14,m01b0121h08,m02ah15,m04ah17,m07ah09,m07c0716h17,m10ah12,m10ah14,m11ah09,m11ah13,m01ah14,m01b0121h15,m01b0121h17,m02ah09,m02ah10,m02ah12,m03ah08,m03ah09,m05ah14,m07c0716h16,m11ah08,m11ah15,m12ah17,m01ah09,m01b0121h09,m01b0121h16,m02ah18,m03ah18,m05ah12,m05ah18,m07c0716h18,m08ah07,m10ah15,m11ah12,m12ah18,m03ah15,m04ah13,m06ah09,m07ah07,m07ah16,m09ah13,m01b0121h07,m03ah13,m07ah10,m07ah18,m07c0716h14,m08ah08,m08ah10,m11ah14,m12ah08,m01b0121h12,m03ah07,m05ah11,m06ah07,m06ah10,m06ah18,m07ah08,m08ah17,m09ah17,m10ah08,m01b0121h13,m03ah14,m04ah09,m04ah15,m06ah08,m07c0716h08,m08ah13,m08ah14,m09ah08,m09ah09,m09ah16,m10ah07,m10ah16,m10ah17,m12ah09</t>
+  </si>
+  <si>
+    <t>m02ah02,m02ah19,m02ah21,m03ah20,m07ah19,m07ah23,m07c0716h20,m08ah19,m08ah22,m09ah06,m10ah20,m11ah06,m11ah21,m01ah04,m03ah04,m04ah20,m06ah05,m09ah19,m01b0121h04,m01b0121h06,m01b0121h21,m03ah06,m03ah21,m04ah02,m05ah01,m05ah06,m07c0716h06,m10ah06,m10ah19,m12ah01,m02ah03,m02ah04,m02ah22,m07ah01,m07ah20,m07c0716h01,m09ah22,m09ah24,m10ah21,m11ah02,m12ah20,m12ah23,m07ah03,m07ah21,m10ah03,m12ah05,m01b0121h03,m02ah20,m03ah23,m04ah22,m07c0716h22,m08ah01,m08ah23,m10ah02,m11ah01,m11ah04,m01ah24,m05ah05,m05ah22,m06ah06,m06ah22,m08ah05,m08ah06,m08ah20,m10ah01,m12ah02,m01ah06,m01b0121h01,m02ah06,m03ah03,m04ah06,m05ah03,m05ah20,m06ah01,m06ah23,m07ah22,m09ah21,m12ah04,m01b0121h22,m03ah22,m04ah05,m06ah04,m06ah19,m06ah20,m07c0716h04,m07c0716h24,m09ah20,m11ah19,m12ah22,m01ah23,m03ah02,m03ah24,m06ah24,m07ah05,m09ah03,m11ah22,m12ah24,m01ah02,m01ah19,m01ah22,m01b0121h23,m02ah05,m03ah01,m04ah23,m05ah04,m08ah04,m09ah01,m12ah06,m12ah19,m01b0121h02,m01b0121h05,m01b0121h20,m06ah03,m07ah04,m07c0716h19,m08ah02,m08ah03,m08ah21,m09ah05,m11ah05,m12ah21,m02ah01,m02ah24,m03ah19,m05ah02,m05ah19,m06ah21,m07c0716h05,m08ah24,m12ah03,m01ah03,m01ah21,m01b0121h19,m01b0121h24,m04ah24,m05ah21,m05ah24,m07ah02,m09ah23,m10ah04,m10ah22,m10ah24,m11ah03,m01ah01,m01ah05,m02ah23,m04ah01,m04ah04,m06ah02,m07ah06,m07c0716h02,m07c0716h23,m09ah02,m09ah04,m10ah05,m10ah23,m11ah20,m11ah23,m01ah20,m03ah05,m04ah03,m04ah19,m04ah21,m05ah23,m07ah24,m07c0716h03,m07c0716h21,m11ah24</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -2143,7 +2143,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>m01b0121h02,m01b0121h05,m01b0121h20,m06ah03,m07ah04,m07c0716h19,m08ah02,m08ah03,m08ah21,m09ah05,m11ah05,m12ah21,m01ah01,m01ah05,m02ah23,m04ah01,m04ah04,m06ah02,m07ah06,m07c0716h02,m07c0716h23,m09ah02,m09ah04,m10ah05,m10ah23,m11ah20,m11ah23,m01b0121h04,m01b0121h06,m01b0121h21,m03ah06,m03ah21,m04ah02,m05ah01,m05ah06,m07c0716h06,m10ah06,m10ah19,m12ah01,m01ah24,m05ah05,m05ah22,m06ah06,m06ah22,m08ah05,m08ah06,m08ah20,m10ah01,m12ah02,m01ah03,m01ah21,m01b0121h19,m01b0121h24,m04ah24,m05ah21,m05ah24,m07ah02,m09ah23,m10ah04,m10ah22,m10ah24,m11ah03,m01ah06,m01b0121h01,m02ah06,m03ah03,m04ah06,m05ah03,m05ah20,m06ah01,m06ah23,m07ah22,m09ah21,m12ah04,m02ah03,m02ah04,m02ah22,m07ah01,m07ah20,m07c0716h01,m09ah22,m09ah24,m10ah21,m11ah02,m12ah20,m12ah23,m01ah23,m03ah02,m03ah24,m06ah24,m07ah05,m09ah03,m11ah22,m12ah24,m01b0121h03,m02ah20,m03ah23,m04ah22,m07c0716h22,m08ah01,m08ah23,m10ah02,m11ah01,m11ah04,m01b0121h22,m03ah22,m04ah05,m06ah04,m06ah19,m06ah20,m07c0716h04,m07c0716h24,m09ah20,m11ah19,m12ah22,m01ah20,m03ah05,m04ah03,m04ah19,m04ah21,m05ah23,m07ah24,m07c0716h03,m07c0716h21,m11ah24,m01ah02,m01ah19,m01ah22,m01b0121h23,m02ah05,m03ah01,m04ah23,m05ah04,m08ah04,m09ah01,m12ah06,m12ah19,m02ah01,m02ah24,m03ah19,m05ah02,m05ah19,m06ah21,m07c0716h05,m08ah24,m12ah03,m01ah04,m03ah04,m04ah20,m06ah05,m09ah19,m02ah02,m02ah19,m02ah21,m03ah20,m07ah19,m07ah23,m07c0716h20,m08ah19,m08ah22,m09ah06,m10ah20,m11ah06,m11ah21,m07ah03,m07ah21,m10ah03,m12ah05</v>
+        <v>m02ah02,m02ah19,m02ah21,m03ah20,m07ah19,m07ah23,m07c0716h20,m08ah19,m08ah22,m09ah06,m10ah20,m11ah06,m11ah21,m01ah04,m03ah04,m04ah20,m06ah05,m09ah19,m01b0121h04,m01b0121h06,m01b0121h21,m03ah06,m03ah21,m04ah02,m05ah01,m05ah06,m07c0716h06,m10ah06,m10ah19,m12ah01,m02ah03,m02ah04,m02ah22,m07ah01,m07ah20,m07c0716h01,m09ah22,m09ah24,m10ah21,m11ah02,m12ah20,m12ah23,m07ah03,m07ah21,m10ah03,m12ah05,m01b0121h03,m02ah20,m03ah23,m04ah22,m07c0716h22,m08ah01,m08ah23,m10ah02,m11ah01,m11ah04,m01ah24,m05ah05,m05ah22,m06ah06,m06ah22,m08ah05,m08ah06,m08ah20,m10ah01,m12ah02,m01ah06,m01b0121h01,m02ah06,m03ah03,m04ah06,m05ah03,m05ah20,m06ah01,m06ah23,m07ah22,m09ah21,m12ah04,m01b0121h22,m03ah22,m04ah05,m06ah04,m06ah19,m06ah20,m07c0716h04,m07c0716h24,m09ah20,m11ah19,m12ah22,m01ah23,m03ah02,m03ah24,m06ah24,m07ah05,m09ah03,m11ah22,m12ah24,m01ah02,m01ah19,m01ah22,m01b0121h23,m02ah05,m03ah01,m04ah23,m05ah04,m08ah04,m09ah01,m12ah06,m12ah19,m01b0121h02,m01b0121h05,m01b0121h20,m06ah03,m07ah04,m07c0716h19,m08ah02,m08ah03,m08ah21,m09ah05,m11ah05,m12ah21,m02ah01,m02ah24,m03ah19,m05ah02,m05ah19,m06ah21,m07c0716h05,m08ah24,m12ah03,m01ah03,m01ah21,m01b0121h19,m01b0121h24,m04ah24,m05ah21,m05ah24,m07ah02,m09ah23,m10ah04,m10ah22,m10ah24,m11ah03,m01ah01,m01ah05,m02ah23,m04ah01,m04ah04,m06ah02,m07ah06,m07c0716h02,m07c0716h23,m09ah02,m09ah04,m10ah05,m10ah23,m11ah20,m11ah23,m01ah20,m03ah05,m04ah03,m04ah19,m04ah21,m05ah23,m07ah24,m07c0716h03,m07c0716h21,m11ah24</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -2175,7 +2175,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>m01ah09,m01b0121h09,m01b0121h16,m02ah18,m03ah18,m05ah12,m05ah18,m07c0716h18,m08ah07,m10ah15,m11ah12,m12ah18,m01b0121h12,m03ah07,m05ah11,m06ah07,m06ah10,m06ah18,m07ah08,m08ah17,m09ah17,m10ah08,m01ah10,m01ah16,m03ah10,m03ah11,m04ah07,m06ah17,m08ah12,m11ah17,m12ah10,m12ah16,m01b0121h11,m02ah16,m02ah17,m06ah11,m07ah11,m07ah14,m07c0716h13,m08ah15,m08ah16,m12ah13,m01b0121h07,m03ah13,m07ah10,m07ah18,m07c0716h14,m08ah08,m08ah10,m11ah14,m12ah08,m01ah07,m02ah11,m05ah09,m05ah15,m07ah12,m09ah10,m11ah11,m11ah18,m12ah14,m01ah15,m01ah18,m01b0121h14,m02ah07,m04ah08,m04ah14,m05ah07,m05ah13,m07c0716h07,m07c0716h15,m08ah18,m10ah18,m12ah11,m01b0121h08,m02ah15,m04ah17,m07ah09,m07c0716h17,m10ah12,m10ah14,m11ah09,m11ah13,m01ah17,m02ah13,m05ah16,m06ah14,m07c0716h11,m09ah11,m09ah18,m10ah09,m10ah13,m11ah16,m12ah15,m01ah08,m02ah08,m02ah14,m03ah17,m05ah17,m06ah15,m07ah15,m08ah11,m09ah07,m09ah14,m01b0121h13,m03ah14,m04ah09,m04ah15,m06ah08,m07c0716h08,m08ah13,m08ah14,m09ah08,m09ah09,m09ah16,m10ah07,m10ah16,m10ah17,m12ah09,m01ah14,m01b0121h15,m01b0121h17,m02ah09,m02ah10,m02ah12,m03ah08,m03ah09,m05ah14,m07c0716h16,m11ah08,m11ah15,m12ah17,m03ah15,m04ah13,m06ah09,m07ah07,m07ah16,m09ah13,m01ah12,m01ah13,m01b0121h18,m04ah10,m04ah16,m05ah08,m06ah13,m07ah13,m09ah12,m10ah10,m10ah11,m11ah07,m03ah16,m04ah18,m05ah10,m07ah17,m07c0716h09,m12ah07,m01ah11,m01b0121h10,m03ah12,m04ah11,m04ah12,m06ah12,m06ah16,m07c0716h10,m07c0716h12,m08ah09,m09ah15,m11ah10,m12ah12</v>
+        <v>m03ah16,m04ah18,m05ah10,m07ah17,m07c0716h09,m12ah07,m01ah12,m01ah13,m01b0121h18,m04ah10,m04ah16,m05ah08,m06ah13,m07ah13,m09ah12,m10ah10,m10ah11,m11ah07,m01ah10,m01ah16,m03ah10,m03ah11,m04ah07,m06ah17,m08ah12,m11ah17,m12ah10,m12ah16,m01ah15,m01ah18,m01b0121h14,m02ah07,m04ah08,m04ah14,m05ah07,m05ah13,m07c0716h07,m07c0716h15,m08ah18,m10ah18,m12ah11,m01ah11,m01b0121h10,m03ah12,m04ah11,m04ah12,m06ah12,m06ah16,m07c0716h10,m07c0716h12,m08ah09,m09ah15,m11ah10,m12ah12,m01ah17,m02ah13,m05ah16,m06ah14,m07c0716h11,m09ah11,m09ah18,m10ah09,m10ah13,m11ah16,m12ah15,m01b0121h11,m02ah16,m02ah17,m06ah11,m07ah11,m07ah14,m07c0716h13,m08ah15,m08ah16,m12ah13,m01ah07,m02ah11,m05ah09,m05ah15,m07ah12,m09ah10,m11ah11,m11ah18,m12ah14,m01ah08,m02ah08,m02ah14,m03ah17,m05ah17,m06ah15,m07ah15,m08ah11,m09ah07,m09ah14,m01b0121h08,m02ah15,m04ah17,m07ah09,m07c0716h17,m10ah12,m10ah14,m11ah09,m11ah13,m01ah14,m01b0121h15,m01b0121h17,m02ah09,m02ah10,m02ah12,m03ah08,m03ah09,m05ah14,m07c0716h16,m11ah08,m11ah15,m12ah17,m01ah09,m01b0121h09,m01b0121h16,m02ah18,m03ah18,m05ah12,m05ah18,m07c0716h18,m08ah07,m10ah15,m11ah12,m12ah18,m03ah15,m04ah13,m06ah09,m07ah07,m07ah16,m09ah13,m01b0121h07,m03ah13,m07ah10,m07ah18,m07c0716h14,m08ah08,m08ah10,m11ah14,m12ah08,m01b0121h12,m03ah07,m05ah11,m06ah07,m06ah10,m06ah18,m07ah08,m08ah17,m09ah17,m10ah08,m01b0121h13,m03ah14,m04ah09,m04ah15,m06ah08,m07c0716h08,m08ah13,m08ah14,m09ah08,m09ah09,m09ah16,m10ah07,m10ah16,m10ah17,m12ah09</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2788,7 +2788,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E46A013-A9A0-4FC6-8E20-D604EF6D3B88}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{437CED33-460F-4A19-B0D9-8153377A65CE}">
   <dimension ref="B2:F75"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3453,7 +3453,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E071872A-90CA-4FCA-B2F3-0C46B449BF01}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D312A18-35F9-4BB4-BB87-B717F1967622}">
   <dimension ref="B2:O339"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3532,10 +3532,10 @@
         <v>168</v>
       </c>
       <c r="M4" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="N4">
-        <v>7.5520592318371119E-2</v>
+        <v>0.11449560388708931</v>
       </c>
       <c r="O4" t="s">
         <v>516</v>
@@ -3567,10 +3567,10 @@
         <v>168</v>
       </c>
       <c r="M5" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="N5">
-        <v>7.7845904673762151E-2</v>
+        <v>0.13490282276723739</v>
       </c>
       <c r="O5" t="s">
         <v>516</v>
@@ -3637,10 +3637,10 @@
         <v>168</v>
       </c>
       <c r="M7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="N7">
-        <v>8.8500694123091153E-2</v>
+        <v>7.7845904673762151E-2</v>
       </c>
       <c r="O7" t="s">
         <v>516</v>
@@ -3672,10 +3672,10 @@
         <v>168</v>
       </c>
       <c r="M8" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="N8">
-        <v>8.4821841739935219E-2</v>
+        <v>0.15187413234613606</v>
       </c>
       <c r="O8" t="s">
         <v>516</v>
@@ -3707,10 +3707,10 @@
         <v>168</v>
       </c>
       <c r="M9" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="N9">
-        <v>0.13490282276723739</v>
+        <v>6.8752892179546499E-2</v>
       </c>
       <c r="O9" t="s">
         <v>516</v>
@@ -3812,10 +3812,10 @@
         <v>168</v>
       </c>
       <c r="M12" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="N12">
-        <v>6.8752892179546499E-2</v>
+        <v>7.5520592318371119E-2</v>
       </c>
       <c r="O12" t="s">
         <v>516</v>
@@ -3882,10 +3882,10 @@
         <v>168</v>
       </c>
       <c r="M14" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="N14">
-        <v>0.11449560388708931</v>
+        <v>8.4821841739935219E-2</v>
       </c>
       <c r="O14" t="s">
         <v>516</v>
@@ -3917,10 +3917,10 @@
         <v>168</v>
       </c>
       <c r="M15" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="N15">
-        <v>0.15187413234613606</v>
+        <v>8.8500694123091153E-2</v>
       </c>
       <c r="O15" t="s">
         <v>516</v>
@@ -12356,7 +12356,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34C188E8-5ED3-477A-AB05-589C484DA6D6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5CDC22D-6C3C-4DA2-9F22-B7CFE6FA23F9}">
   <dimension ref="B2:O647"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_336.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_336.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F290F0-2368-4C84-9A00-29BFE3A8AEEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8814B6A7-6ADF-4B85-96CB-CFEA6CC35C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1569,10 +1569,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>m03ah16,m04ah18,m05ah10,m07ah17,m07c0716h09,m12ah07,m01ah12,m01ah13,m01b0121h18,m04ah10,m04ah16,m05ah08,m06ah13,m07ah13,m09ah12,m10ah10,m10ah11,m11ah07,m01ah10,m01ah16,m03ah10,m03ah11,m04ah07,m06ah17,m08ah12,m11ah17,m12ah10,m12ah16,m01ah15,m01ah18,m01b0121h14,m02ah07,m04ah08,m04ah14,m05ah07,m05ah13,m07c0716h07,m07c0716h15,m08ah18,m10ah18,m12ah11,m01ah11,m01b0121h10,m03ah12,m04ah11,m04ah12,m06ah12,m06ah16,m07c0716h10,m07c0716h12,m08ah09,m09ah15,m11ah10,m12ah12,m01ah17,m02ah13,m05ah16,m06ah14,m07c0716h11,m09ah11,m09ah18,m10ah09,m10ah13,m11ah16,m12ah15,m01b0121h11,m02ah16,m02ah17,m06ah11,m07ah11,m07ah14,m07c0716h13,m08ah15,m08ah16,m12ah13,m01ah07,m02ah11,m05ah09,m05ah15,m07ah12,m09ah10,m11ah11,m11ah18,m12ah14,m01ah08,m02ah08,m02ah14,m03ah17,m05ah17,m06ah15,m07ah15,m08ah11,m09ah07,m09ah14,m01b0121h08,m02ah15,m04ah17,m07ah09,m07c0716h17,m10ah12,m10ah14,m11ah09,m11ah13,m01ah14,m01b0121h15,m01b0121h17,m02ah09,m02ah10,m02ah12,m03ah08,m03ah09,m05ah14,m07c0716h16,m11ah08,m11ah15,m12ah17,m01ah09,m01b0121h09,m01b0121h16,m02ah18,m03ah18,m05ah12,m05ah18,m07c0716h18,m08ah07,m10ah15,m11ah12,m12ah18,m03ah15,m04ah13,m06ah09,m07ah07,m07ah16,m09ah13,m01b0121h07,m03ah13,m07ah10,m07ah18,m07c0716h14,m08ah08,m08ah10,m11ah14,m12ah08,m01b0121h12,m03ah07,m05ah11,m06ah07,m06ah10,m06ah18,m07ah08,m08ah17,m09ah17,m10ah08,m01b0121h13,m03ah14,m04ah09,m04ah15,m06ah08,m07c0716h08,m08ah13,m08ah14,m09ah08,m09ah09,m09ah16,m10ah07,m10ah16,m10ah17,m12ah09</t>
-  </si>
-  <si>
-    <t>m02ah02,m02ah19,m02ah21,m03ah20,m07ah19,m07ah23,m07c0716h20,m08ah19,m08ah22,m09ah06,m10ah20,m11ah06,m11ah21,m01ah04,m03ah04,m04ah20,m06ah05,m09ah19,m01b0121h04,m01b0121h06,m01b0121h21,m03ah06,m03ah21,m04ah02,m05ah01,m05ah06,m07c0716h06,m10ah06,m10ah19,m12ah01,m02ah03,m02ah04,m02ah22,m07ah01,m07ah20,m07c0716h01,m09ah22,m09ah24,m10ah21,m11ah02,m12ah20,m12ah23,m07ah03,m07ah21,m10ah03,m12ah05,m01b0121h03,m02ah20,m03ah23,m04ah22,m07c0716h22,m08ah01,m08ah23,m10ah02,m11ah01,m11ah04,m01ah24,m05ah05,m05ah22,m06ah06,m06ah22,m08ah05,m08ah06,m08ah20,m10ah01,m12ah02,m01ah06,m01b0121h01,m02ah06,m03ah03,m04ah06,m05ah03,m05ah20,m06ah01,m06ah23,m07ah22,m09ah21,m12ah04,m01b0121h22,m03ah22,m04ah05,m06ah04,m06ah19,m06ah20,m07c0716h04,m07c0716h24,m09ah20,m11ah19,m12ah22,m01ah23,m03ah02,m03ah24,m06ah24,m07ah05,m09ah03,m11ah22,m12ah24,m01ah02,m01ah19,m01ah22,m01b0121h23,m02ah05,m03ah01,m04ah23,m05ah04,m08ah04,m09ah01,m12ah06,m12ah19,m01b0121h02,m01b0121h05,m01b0121h20,m06ah03,m07ah04,m07c0716h19,m08ah02,m08ah03,m08ah21,m09ah05,m11ah05,m12ah21,m02ah01,m02ah24,m03ah19,m05ah02,m05ah19,m06ah21,m07c0716h05,m08ah24,m12ah03,m01ah03,m01ah21,m01b0121h19,m01b0121h24,m04ah24,m05ah21,m05ah24,m07ah02,m09ah23,m10ah04,m10ah22,m10ah24,m11ah03,m01ah01,m01ah05,m02ah23,m04ah01,m04ah04,m06ah02,m07ah06,m07c0716h02,m07c0716h23,m09ah02,m09ah04,m10ah05,m10ah23,m11ah20,m11ah23,m01ah20,m03ah05,m04ah03,m04ah19,m04ah21,m05ah23,m07ah24,m07c0716h03,m07c0716h21,m11ah24</t>
+    <t>m01ah11,m01b0121h10,m03ah12,m04ah11,m04ah12,m06ah12,m06ah16,m07c0716h10,m07c0716h12,m08ah09,m09ah15,m11ah10,m12ah12,m01ah12,m01ah13,m01b0121h18,m04ah10,m04ah16,m05ah08,m06ah13,m07ah13,m09ah12,m10ah10,m10ah11,m11ah07,m01b0121h07,m03ah13,m07ah10,m07ah18,m07c0716h14,m08ah08,m08ah10,m11ah14,m12ah08,m03ah16,m04ah18,m05ah10,m07ah17,m07c0716h09,m12ah07,m01ah14,m01b0121h15,m01b0121h17,m02ah09,m02ah10,m02ah12,m03ah08,m03ah09,m05ah14,m07c0716h16,m11ah08,m11ah15,m12ah17,m01ah15,m01ah18,m01b0121h14,m02ah07,m04ah08,m04ah14,m05ah07,m05ah13,m07c0716h07,m07c0716h15,m08ah18,m10ah18,m12ah11,m03ah15,m04ah13,m06ah09,m07ah07,m07ah16,m09ah13,m01ah17,m02ah13,m05ah16,m06ah14,m07c0716h11,m09ah11,m09ah18,m10ah09,m10ah13,m11ah16,m12ah15,m01ah08,m02ah08,m02ah14,m03ah17,m05ah17,m06ah15,m07ah15,m08ah11,m09ah07,m09ah14,m01ah09,m01b0121h09,m01b0121h16,m02ah18,m03ah18,m05ah12,m05ah18,m07c0716h18,m08ah07,m10ah15,m11ah12,m12ah18,m01ah07,m02ah11,m05ah09,m05ah15,m07ah12,m09ah10,m11ah11,m11ah18,m12ah14,m01ah10,m01ah16,m03ah10,m03ah11,m04ah07,m06ah17,m08ah12,m11ah17,m12ah10,m12ah16,m01b0121h08,m02ah15,m04ah17,m07ah09,m07c0716h17,m10ah12,m10ah14,m11ah09,m11ah13,m01b0121h12,m03ah07,m05ah11,m06ah07,m06ah10,m06ah18,m07ah08,m08ah17,m09ah17,m10ah08,m01b0121h11,m02ah16,m02ah17,m06ah11,m07ah11,m07ah14,m07c0716h13,m08ah15,m08ah16,m12ah13,m01b0121h13,m03ah14,m04ah09,m04ah15,m06ah08,m07c0716h08,m08ah13,m08ah14,m09ah08,m09ah09,m09ah16,m10ah07,m10ah16,m10ah17,m12ah09</t>
+  </si>
+  <si>
+    <t>m07ah03,m07ah21,m10ah03,m12ah05,m01ah04,m03ah04,m04ah20,m06ah05,m09ah19,m01ah03,m01ah21,m01b0121h19,m01b0121h24,m04ah24,m05ah21,m05ah24,m07ah02,m09ah23,m10ah04,m10ah22,m10ah24,m11ah03,m02ah02,m02ah19,m02ah21,m03ah20,m07ah19,m07ah23,m07c0716h20,m08ah19,m08ah22,m09ah06,m10ah20,m11ah06,m11ah21,m01ah02,m01ah19,m01ah22,m01b0121h23,m02ah05,m03ah01,m04ah23,m05ah04,m08ah04,m09ah01,m12ah06,m12ah19,m02ah03,m02ah04,m02ah22,m07ah01,m07ah20,m07c0716h01,m09ah22,m09ah24,m10ah21,m11ah02,m12ah20,m12ah23,m02ah01,m02ah24,m03ah19,m05ah02,m05ah19,m06ah21,m07c0716h05,m08ah24,m12ah03,m01b0121h03,m02ah20,m03ah23,m04ah22,m07c0716h22,m08ah01,m08ah23,m10ah02,m11ah01,m11ah04,m01b0121h22,m03ah22,m04ah05,m06ah04,m06ah19,m06ah20,m07c0716h04,m07c0716h24,m09ah20,m11ah19,m12ah22,m01b0121h02,m01b0121h05,m01b0121h20,m06ah03,m07ah04,m07c0716h19,m08ah02,m08ah03,m08ah21,m09ah05,m11ah05,m12ah21,m01ah06,m01b0121h01,m02ah06,m03ah03,m04ah06,m05ah03,m05ah20,m06ah01,m06ah23,m07ah22,m09ah21,m12ah04,m01b0121h04,m01b0121h06,m01b0121h21,m03ah06,m03ah21,m04ah02,m05ah01,m05ah06,m07c0716h06,m10ah06,m10ah19,m12ah01,m01ah23,m03ah02,m03ah24,m06ah24,m07ah05,m09ah03,m11ah22,m12ah24,m01ah01,m01ah05,m02ah23,m04ah01,m04ah04,m06ah02,m07ah06,m07c0716h02,m07c0716h23,m09ah02,m09ah04,m10ah05,m10ah23,m11ah20,m11ah23,m01ah24,m05ah05,m05ah22,m06ah06,m06ah22,m08ah05,m08ah06,m08ah20,m10ah01,m12ah02,m01ah20,m03ah05,m04ah03,m04ah19,m04ah21,m05ah23,m07ah24,m07c0716h03,m07c0716h21,m11ah24</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -2143,7 +2143,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>m02ah02,m02ah19,m02ah21,m03ah20,m07ah19,m07ah23,m07c0716h20,m08ah19,m08ah22,m09ah06,m10ah20,m11ah06,m11ah21,m01ah04,m03ah04,m04ah20,m06ah05,m09ah19,m01b0121h04,m01b0121h06,m01b0121h21,m03ah06,m03ah21,m04ah02,m05ah01,m05ah06,m07c0716h06,m10ah06,m10ah19,m12ah01,m02ah03,m02ah04,m02ah22,m07ah01,m07ah20,m07c0716h01,m09ah22,m09ah24,m10ah21,m11ah02,m12ah20,m12ah23,m07ah03,m07ah21,m10ah03,m12ah05,m01b0121h03,m02ah20,m03ah23,m04ah22,m07c0716h22,m08ah01,m08ah23,m10ah02,m11ah01,m11ah04,m01ah24,m05ah05,m05ah22,m06ah06,m06ah22,m08ah05,m08ah06,m08ah20,m10ah01,m12ah02,m01ah06,m01b0121h01,m02ah06,m03ah03,m04ah06,m05ah03,m05ah20,m06ah01,m06ah23,m07ah22,m09ah21,m12ah04,m01b0121h22,m03ah22,m04ah05,m06ah04,m06ah19,m06ah20,m07c0716h04,m07c0716h24,m09ah20,m11ah19,m12ah22,m01ah23,m03ah02,m03ah24,m06ah24,m07ah05,m09ah03,m11ah22,m12ah24,m01ah02,m01ah19,m01ah22,m01b0121h23,m02ah05,m03ah01,m04ah23,m05ah04,m08ah04,m09ah01,m12ah06,m12ah19,m01b0121h02,m01b0121h05,m01b0121h20,m06ah03,m07ah04,m07c0716h19,m08ah02,m08ah03,m08ah21,m09ah05,m11ah05,m12ah21,m02ah01,m02ah24,m03ah19,m05ah02,m05ah19,m06ah21,m07c0716h05,m08ah24,m12ah03,m01ah03,m01ah21,m01b0121h19,m01b0121h24,m04ah24,m05ah21,m05ah24,m07ah02,m09ah23,m10ah04,m10ah22,m10ah24,m11ah03,m01ah01,m01ah05,m02ah23,m04ah01,m04ah04,m06ah02,m07ah06,m07c0716h02,m07c0716h23,m09ah02,m09ah04,m10ah05,m10ah23,m11ah20,m11ah23,m01ah20,m03ah05,m04ah03,m04ah19,m04ah21,m05ah23,m07ah24,m07c0716h03,m07c0716h21,m11ah24</v>
+        <v>m07ah03,m07ah21,m10ah03,m12ah05,m01ah04,m03ah04,m04ah20,m06ah05,m09ah19,m01ah03,m01ah21,m01b0121h19,m01b0121h24,m04ah24,m05ah21,m05ah24,m07ah02,m09ah23,m10ah04,m10ah22,m10ah24,m11ah03,m02ah02,m02ah19,m02ah21,m03ah20,m07ah19,m07ah23,m07c0716h20,m08ah19,m08ah22,m09ah06,m10ah20,m11ah06,m11ah21,m01ah02,m01ah19,m01ah22,m01b0121h23,m02ah05,m03ah01,m04ah23,m05ah04,m08ah04,m09ah01,m12ah06,m12ah19,m02ah03,m02ah04,m02ah22,m07ah01,m07ah20,m07c0716h01,m09ah22,m09ah24,m10ah21,m11ah02,m12ah20,m12ah23,m02ah01,m02ah24,m03ah19,m05ah02,m05ah19,m06ah21,m07c0716h05,m08ah24,m12ah03,m01b0121h03,m02ah20,m03ah23,m04ah22,m07c0716h22,m08ah01,m08ah23,m10ah02,m11ah01,m11ah04,m01b0121h22,m03ah22,m04ah05,m06ah04,m06ah19,m06ah20,m07c0716h04,m07c0716h24,m09ah20,m11ah19,m12ah22,m01b0121h02,m01b0121h05,m01b0121h20,m06ah03,m07ah04,m07c0716h19,m08ah02,m08ah03,m08ah21,m09ah05,m11ah05,m12ah21,m01ah06,m01b0121h01,m02ah06,m03ah03,m04ah06,m05ah03,m05ah20,m06ah01,m06ah23,m07ah22,m09ah21,m12ah04,m01b0121h04,m01b0121h06,m01b0121h21,m03ah06,m03ah21,m04ah02,m05ah01,m05ah06,m07c0716h06,m10ah06,m10ah19,m12ah01,m01ah23,m03ah02,m03ah24,m06ah24,m07ah05,m09ah03,m11ah22,m12ah24,m01ah01,m01ah05,m02ah23,m04ah01,m04ah04,m06ah02,m07ah06,m07c0716h02,m07c0716h23,m09ah02,m09ah04,m10ah05,m10ah23,m11ah20,m11ah23,m01ah24,m05ah05,m05ah22,m06ah06,m06ah22,m08ah05,m08ah06,m08ah20,m10ah01,m12ah02,m01ah20,m03ah05,m04ah03,m04ah19,m04ah21,m05ah23,m07ah24,m07c0716h03,m07c0716h21,m11ah24</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -2175,7 +2175,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>m03ah16,m04ah18,m05ah10,m07ah17,m07c0716h09,m12ah07,m01ah12,m01ah13,m01b0121h18,m04ah10,m04ah16,m05ah08,m06ah13,m07ah13,m09ah12,m10ah10,m10ah11,m11ah07,m01ah10,m01ah16,m03ah10,m03ah11,m04ah07,m06ah17,m08ah12,m11ah17,m12ah10,m12ah16,m01ah15,m01ah18,m01b0121h14,m02ah07,m04ah08,m04ah14,m05ah07,m05ah13,m07c0716h07,m07c0716h15,m08ah18,m10ah18,m12ah11,m01ah11,m01b0121h10,m03ah12,m04ah11,m04ah12,m06ah12,m06ah16,m07c0716h10,m07c0716h12,m08ah09,m09ah15,m11ah10,m12ah12,m01ah17,m02ah13,m05ah16,m06ah14,m07c0716h11,m09ah11,m09ah18,m10ah09,m10ah13,m11ah16,m12ah15,m01b0121h11,m02ah16,m02ah17,m06ah11,m07ah11,m07ah14,m07c0716h13,m08ah15,m08ah16,m12ah13,m01ah07,m02ah11,m05ah09,m05ah15,m07ah12,m09ah10,m11ah11,m11ah18,m12ah14,m01ah08,m02ah08,m02ah14,m03ah17,m05ah17,m06ah15,m07ah15,m08ah11,m09ah07,m09ah14,m01b0121h08,m02ah15,m04ah17,m07ah09,m07c0716h17,m10ah12,m10ah14,m11ah09,m11ah13,m01ah14,m01b0121h15,m01b0121h17,m02ah09,m02ah10,m02ah12,m03ah08,m03ah09,m05ah14,m07c0716h16,m11ah08,m11ah15,m12ah17,m01ah09,m01b0121h09,m01b0121h16,m02ah18,m03ah18,m05ah12,m05ah18,m07c0716h18,m08ah07,m10ah15,m11ah12,m12ah18,m03ah15,m04ah13,m06ah09,m07ah07,m07ah16,m09ah13,m01b0121h07,m03ah13,m07ah10,m07ah18,m07c0716h14,m08ah08,m08ah10,m11ah14,m12ah08,m01b0121h12,m03ah07,m05ah11,m06ah07,m06ah10,m06ah18,m07ah08,m08ah17,m09ah17,m10ah08,m01b0121h13,m03ah14,m04ah09,m04ah15,m06ah08,m07c0716h08,m08ah13,m08ah14,m09ah08,m09ah09,m09ah16,m10ah07,m10ah16,m10ah17,m12ah09</v>
+        <v>m01ah11,m01b0121h10,m03ah12,m04ah11,m04ah12,m06ah12,m06ah16,m07c0716h10,m07c0716h12,m08ah09,m09ah15,m11ah10,m12ah12,m01ah12,m01ah13,m01b0121h18,m04ah10,m04ah16,m05ah08,m06ah13,m07ah13,m09ah12,m10ah10,m10ah11,m11ah07,m01b0121h07,m03ah13,m07ah10,m07ah18,m07c0716h14,m08ah08,m08ah10,m11ah14,m12ah08,m03ah16,m04ah18,m05ah10,m07ah17,m07c0716h09,m12ah07,m01ah14,m01b0121h15,m01b0121h17,m02ah09,m02ah10,m02ah12,m03ah08,m03ah09,m05ah14,m07c0716h16,m11ah08,m11ah15,m12ah17,m01ah15,m01ah18,m01b0121h14,m02ah07,m04ah08,m04ah14,m05ah07,m05ah13,m07c0716h07,m07c0716h15,m08ah18,m10ah18,m12ah11,m03ah15,m04ah13,m06ah09,m07ah07,m07ah16,m09ah13,m01ah17,m02ah13,m05ah16,m06ah14,m07c0716h11,m09ah11,m09ah18,m10ah09,m10ah13,m11ah16,m12ah15,m01ah08,m02ah08,m02ah14,m03ah17,m05ah17,m06ah15,m07ah15,m08ah11,m09ah07,m09ah14,m01ah09,m01b0121h09,m01b0121h16,m02ah18,m03ah18,m05ah12,m05ah18,m07c0716h18,m08ah07,m10ah15,m11ah12,m12ah18,m01ah07,m02ah11,m05ah09,m05ah15,m07ah12,m09ah10,m11ah11,m11ah18,m12ah14,m01ah10,m01ah16,m03ah10,m03ah11,m04ah07,m06ah17,m08ah12,m11ah17,m12ah10,m12ah16,m01b0121h08,m02ah15,m04ah17,m07ah09,m07c0716h17,m10ah12,m10ah14,m11ah09,m11ah13,m01b0121h12,m03ah07,m05ah11,m06ah07,m06ah10,m06ah18,m07ah08,m08ah17,m09ah17,m10ah08,m01b0121h11,m02ah16,m02ah17,m06ah11,m07ah11,m07ah14,m07c0716h13,m08ah15,m08ah16,m12ah13,m01b0121h13,m03ah14,m04ah09,m04ah15,m06ah08,m07c0716h08,m08ah13,m08ah14,m09ah08,m09ah09,m09ah16,m10ah07,m10ah16,m10ah17,m12ah09</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2788,7 +2788,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{437CED33-460F-4A19-B0D9-8153377A65CE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F37A6F24-6676-4B4C-A3B1-4CCC043CD94A}">
   <dimension ref="B2:F75"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3453,7 +3453,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D312A18-35F9-4BB4-BB87-B717F1967622}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23B6E1DA-B9BF-4D45-A628-8BBB89AF897C}">
   <dimension ref="B2:O339"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3532,10 +3532,10 @@
         <v>168</v>
       </c>
       <c r="M4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="N4">
-        <v>0.11449560388708931</v>
+        <v>0.13490282276723739</v>
       </c>
       <c r="O4" t="s">
         <v>516</v>
@@ -3567,10 +3567,10 @@
         <v>168</v>
       </c>
       <c r="M5" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="N5">
-        <v>0.13490282276723739</v>
+        <v>9.3706617306802395E-2</v>
       </c>
       <c r="O5" t="s">
         <v>516</v>
@@ -3602,10 +3602,10 @@
         <v>168</v>
       </c>
       <c r="M6" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="N6">
-        <v>9.3706617306802395E-2</v>
+        <v>7.7845904673762151E-2</v>
       </c>
       <c r="O6" t="s">
         <v>516</v>
@@ -3637,10 +3637,10 @@
         <v>168</v>
       </c>
       <c r="M7" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="N7">
-        <v>7.7845904673762151E-2</v>
+        <v>0.15187413234613606</v>
       </c>
       <c r="O7" t="s">
         <v>516</v>
@@ -3672,10 +3672,10 @@
         <v>168</v>
       </c>
       <c r="M8" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="N8">
-        <v>0.15187413234613606</v>
+        <v>0.13802637667746412</v>
       </c>
       <c r="O8" t="s">
         <v>516</v>
@@ -3707,10 +3707,10 @@
         <v>168</v>
       </c>
       <c r="M9" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="N9">
-        <v>6.8752892179546499E-2</v>
+        <v>9.2596020360944012E-2</v>
       </c>
       <c r="O9" t="s">
         <v>516</v>
@@ -3742,10 +3742,10 @@
         <v>168</v>
       </c>
       <c r="M10" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N10">
-        <v>9.2596020360944012E-2</v>
+        <v>6.8752892179546499E-2</v>
       </c>
       <c r="O10" t="s">
         <v>516</v>
@@ -3777,10 +3777,10 @@
         <v>168</v>
       </c>
       <c r="M11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N11">
-        <v>0.13802637667746412</v>
+        <v>7.5520592318371119E-2</v>
       </c>
       <c r="O11" t="s">
         <v>516</v>
@@ -3812,10 +3812,10 @@
         <v>168</v>
       </c>
       <c r="M12" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="N12">
-        <v>7.5520592318371119E-2</v>
+        <v>7.8956501619620548E-2</v>
       </c>
       <c r="O12" t="s">
         <v>516</v>
@@ -3847,10 +3847,10 @@
         <v>168</v>
       </c>
       <c r="M13" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="N13">
-        <v>7.8956501619620548E-2</v>
+        <v>0.11449560388708931</v>
       </c>
       <c r="O13" t="s">
         <v>516</v>
@@ -12356,7 +12356,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5CDC22D-6C3C-4DA2-9F22-B7CFE6FA23F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01506F37-C0FC-482C-B8C8-2EE01AD1B05C}">
   <dimension ref="B2:O647"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_336.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_336.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8814B6A7-6ADF-4B85-96CB-CFEA6CC35C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{867424C3-7D00-4B83-A5FA-E3ABDCA7934F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1569,10 +1569,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>m01ah11,m01b0121h10,m03ah12,m04ah11,m04ah12,m06ah12,m06ah16,m07c0716h10,m07c0716h12,m08ah09,m09ah15,m11ah10,m12ah12,m01ah12,m01ah13,m01b0121h18,m04ah10,m04ah16,m05ah08,m06ah13,m07ah13,m09ah12,m10ah10,m10ah11,m11ah07,m01b0121h07,m03ah13,m07ah10,m07ah18,m07c0716h14,m08ah08,m08ah10,m11ah14,m12ah08,m03ah16,m04ah18,m05ah10,m07ah17,m07c0716h09,m12ah07,m01ah14,m01b0121h15,m01b0121h17,m02ah09,m02ah10,m02ah12,m03ah08,m03ah09,m05ah14,m07c0716h16,m11ah08,m11ah15,m12ah17,m01ah15,m01ah18,m01b0121h14,m02ah07,m04ah08,m04ah14,m05ah07,m05ah13,m07c0716h07,m07c0716h15,m08ah18,m10ah18,m12ah11,m03ah15,m04ah13,m06ah09,m07ah07,m07ah16,m09ah13,m01ah17,m02ah13,m05ah16,m06ah14,m07c0716h11,m09ah11,m09ah18,m10ah09,m10ah13,m11ah16,m12ah15,m01ah08,m02ah08,m02ah14,m03ah17,m05ah17,m06ah15,m07ah15,m08ah11,m09ah07,m09ah14,m01ah09,m01b0121h09,m01b0121h16,m02ah18,m03ah18,m05ah12,m05ah18,m07c0716h18,m08ah07,m10ah15,m11ah12,m12ah18,m01ah07,m02ah11,m05ah09,m05ah15,m07ah12,m09ah10,m11ah11,m11ah18,m12ah14,m01ah10,m01ah16,m03ah10,m03ah11,m04ah07,m06ah17,m08ah12,m11ah17,m12ah10,m12ah16,m01b0121h08,m02ah15,m04ah17,m07ah09,m07c0716h17,m10ah12,m10ah14,m11ah09,m11ah13,m01b0121h12,m03ah07,m05ah11,m06ah07,m06ah10,m06ah18,m07ah08,m08ah17,m09ah17,m10ah08,m01b0121h11,m02ah16,m02ah17,m06ah11,m07ah11,m07ah14,m07c0716h13,m08ah15,m08ah16,m12ah13,m01b0121h13,m03ah14,m04ah09,m04ah15,m06ah08,m07c0716h08,m08ah13,m08ah14,m09ah08,m09ah09,m09ah16,m10ah07,m10ah16,m10ah17,m12ah09</t>
-  </si>
-  <si>
-    <t>m07ah03,m07ah21,m10ah03,m12ah05,m01ah04,m03ah04,m04ah20,m06ah05,m09ah19,m01ah03,m01ah21,m01b0121h19,m01b0121h24,m04ah24,m05ah21,m05ah24,m07ah02,m09ah23,m10ah04,m10ah22,m10ah24,m11ah03,m02ah02,m02ah19,m02ah21,m03ah20,m07ah19,m07ah23,m07c0716h20,m08ah19,m08ah22,m09ah06,m10ah20,m11ah06,m11ah21,m01ah02,m01ah19,m01ah22,m01b0121h23,m02ah05,m03ah01,m04ah23,m05ah04,m08ah04,m09ah01,m12ah06,m12ah19,m02ah03,m02ah04,m02ah22,m07ah01,m07ah20,m07c0716h01,m09ah22,m09ah24,m10ah21,m11ah02,m12ah20,m12ah23,m02ah01,m02ah24,m03ah19,m05ah02,m05ah19,m06ah21,m07c0716h05,m08ah24,m12ah03,m01b0121h03,m02ah20,m03ah23,m04ah22,m07c0716h22,m08ah01,m08ah23,m10ah02,m11ah01,m11ah04,m01b0121h22,m03ah22,m04ah05,m06ah04,m06ah19,m06ah20,m07c0716h04,m07c0716h24,m09ah20,m11ah19,m12ah22,m01b0121h02,m01b0121h05,m01b0121h20,m06ah03,m07ah04,m07c0716h19,m08ah02,m08ah03,m08ah21,m09ah05,m11ah05,m12ah21,m01ah06,m01b0121h01,m02ah06,m03ah03,m04ah06,m05ah03,m05ah20,m06ah01,m06ah23,m07ah22,m09ah21,m12ah04,m01b0121h04,m01b0121h06,m01b0121h21,m03ah06,m03ah21,m04ah02,m05ah01,m05ah06,m07c0716h06,m10ah06,m10ah19,m12ah01,m01ah23,m03ah02,m03ah24,m06ah24,m07ah05,m09ah03,m11ah22,m12ah24,m01ah01,m01ah05,m02ah23,m04ah01,m04ah04,m06ah02,m07ah06,m07c0716h02,m07c0716h23,m09ah02,m09ah04,m10ah05,m10ah23,m11ah20,m11ah23,m01ah24,m05ah05,m05ah22,m06ah06,m06ah22,m08ah05,m08ah06,m08ah20,m10ah01,m12ah02,m01ah20,m03ah05,m04ah03,m04ah19,m04ah21,m05ah23,m07ah24,m07c0716h03,m07c0716h21,m11ah24</t>
+    <t>m01ah11,m01b0121h10,m03ah12,m04ah11,m04ah12,m06ah12,m06ah16,m07c0716h10,m07c0716h12,m08ah09,m09ah15,m11ah10,m12ah12,m01b0121h08,m02ah15,m04ah17,m07ah09,m07c0716h17,m10ah12,m10ah14,m11ah09,m11ah13,m01b0121h07,m03ah13,m07ah10,m07ah18,m07c0716h14,m08ah08,m08ah10,m11ah14,m12ah08,m01ah17,m02ah13,m05ah16,m06ah14,m07c0716h11,m09ah11,m09ah18,m10ah09,m10ah13,m11ah16,m12ah15,m01ah08,m02ah08,m02ah14,m03ah17,m05ah17,m06ah15,m07ah15,m08ah11,m09ah07,m09ah14,m01ah10,m01ah16,m03ah10,m03ah11,m04ah07,m06ah17,m08ah12,m11ah17,m12ah10,m12ah16,m01ah15,m01ah18,m01b0121h14,m02ah07,m04ah08,m04ah14,m05ah07,m05ah13,m07c0716h07,m07c0716h15,m08ah18,m10ah18,m12ah11,m01b0121h13,m03ah14,m04ah09,m04ah15,m06ah08,m07c0716h08,m08ah13,m08ah14,m09ah08,m09ah09,m09ah16,m10ah07,m10ah16,m10ah17,m12ah09,m01ah09,m01b0121h09,m01b0121h16,m02ah18,m03ah18,m05ah12,m05ah18,m07c0716h18,m08ah07,m10ah15,m11ah12,m12ah18,m01b0121h11,m02ah16,m02ah17,m06ah11,m07ah11,m07ah14,m07c0716h13,m08ah15,m08ah16,m12ah13,m01ah14,m01b0121h15,m01b0121h17,m02ah09,m02ah10,m02ah12,m03ah08,m03ah09,m05ah14,m07c0716h16,m11ah08,m11ah15,m12ah17,m01b0121h12,m03ah07,m05ah11,m06ah07,m06ah10,m06ah18,m07ah08,m08ah17,m09ah17,m10ah08,m03ah16,m04ah18,m05ah10,m07ah17,m07c0716h09,m12ah07,m03ah15,m04ah13,m06ah09,m07ah07,m07ah16,m09ah13,m01ah12,m01ah13,m01b0121h18,m04ah10,m04ah16,m05ah08,m06ah13,m07ah13,m09ah12,m10ah10,m10ah11,m11ah07,m01ah07,m02ah11,m05ah09,m05ah15,m07ah12,m09ah10,m11ah11,m11ah18,m12ah14</t>
+  </si>
+  <si>
+    <t>m07ah03,m07ah21,m10ah03,m12ah05,m01ah23,m03ah02,m03ah24,m06ah24,m07ah05,m09ah03,m11ah22,m12ah24,m01ah03,m01ah21,m01b0121h19,m01b0121h24,m04ah24,m05ah21,m05ah24,m07ah02,m09ah23,m10ah04,m10ah22,m10ah24,m11ah03,m01b0121h03,m02ah20,m03ah23,m04ah22,m07c0716h22,m08ah01,m08ah23,m10ah02,m11ah01,m11ah04,m01b0121h22,m03ah22,m04ah05,m06ah04,m06ah19,m06ah20,m07c0716h04,m07c0716h24,m09ah20,m11ah19,m12ah22,m01b0121h04,m01b0121h06,m01b0121h21,m03ah06,m03ah21,m04ah02,m05ah01,m05ah06,m07c0716h06,m10ah06,m10ah19,m12ah01,m02ah03,m02ah04,m02ah22,m07ah01,m07ah20,m07c0716h01,m09ah22,m09ah24,m10ah21,m11ah02,m12ah20,m12ah23,m01ah20,m03ah05,m04ah03,m04ah19,m04ah21,m05ah23,m07ah24,m07c0716h03,m07c0716h21,m11ah24,m01b0121h02,m01b0121h05,m01b0121h20,m06ah03,m07ah04,m07c0716h19,m08ah02,m08ah03,m08ah21,m09ah05,m11ah05,m12ah21,m01ah24,m05ah05,m05ah22,m06ah06,m06ah22,m08ah05,m08ah06,m08ah20,m10ah01,m12ah02,m01ah02,m01ah19,m01ah22,m01b0121h23,m02ah05,m03ah01,m04ah23,m05ah04,m08ah04,m09ah01,m12ah06,m12ah19,m01ah01,m01ah05,m02ah23,m04ah01,m04ah04,m06ah02,m07ah06,m07c0716h02,m07c0716h23,m09ah02,m09ah04,m10ah05,m10ah23,m11ah20,m11ah23,m02ah02,m02ah19,m02ah21,m03ah20,m07ah19,m07ah23,m07c0716h20,m08ah19,m08ah22,m09ah06,m10ah20,m11ah06,m11ah21,m02ah01,m02ah24,m03ah19,m05ah02,m05ah19,m06ah21,m07c0716h05,m08ah24,m12ah03,m01ah04,m03ah04,m04ah20,m06ah05,m09ah19,m01ah06,m01b0121h01,m02ah06,m03ah03,m04ah06,m05ah03,m05ah20,m06ah01,m06ah23,m07ah22,m09ah21,m12ah04</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -2143,7 +2143,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>m07ah03,m07ah21,m10ah03,m12ah05,m01ah04,m03ah04,m04ah20,m06ah05,m09ah19,m01ah03,m01ah21,m01b0121h19,m01b0121h24,m04ah24,m05ah21,m05ah24,m07ah02,m09ah23,m10ah04,m10ah22,m10ah24,m11ah03,m02ah02,m02ah19,m02ah21,m03ah20,m07ah19,m07ah23,m07c0716h20,m08ah19,m08ah22,m09ah06,m10ah20,m11ah06,m11ah21,m01ah02,m01ah19,m01ah22,m01b0121h23,m02ah05,m03ah01,m04ah23,m05ah04,m08ah04,m09ah01,m12ah06,m12ah19,m02ah03,m02ah04,m02ah22,m07ah01,m07ah20,m07c0716h01,m09ah22,m09ah24,m10ah21,m11ah02,m12ah20,m12ah23,m02ah01,m02ah24,m03ah19,m05ah02,m05ah19,m06ah21,m07c0716h05,m08ah24,m12ah03,m01b0121h03,m02ah20,m03ah23,m04ah22,m07c0716h22,m08ah01,m08ah23,m10ah02,m11ah01,m11ah04,m01b0121h22,m03ah22,m04ah05,m06ah04,m06ah19,m06ah20,m07c0716h04,m07c0716h24,m09ah20,m11ah19,m12ah22,m01b0121h02,m01b0121h05,m01b0121h20,m06ah03,m07ah04,m07c0716h19,m08ah02,m08ah03,m08ah21,m09ah05,m11ah05,m12ah21,m01ah06,m01b0121h01,m02ah06,m03ah03,m04ah06,m05ah03,m05ah20,m06ah01,m06ah23,m07ah22,m09ah21,m12ah04,m01b0121h04,m01b0121h06,m01b0121h21,m03ah06,m03ah21,m04ah02,m05ah01,m05ah06,m07c0716h06,m10ah06,m10ah19,m12ah01,m01ah23,m03ah02,m03ah24,m06ah24,m07ah05,m09ah03,m11ah22,m12ah24,m01ah01,m01ah05,m02ah23,m04ah01,m04ah04,m06ah02,m07ah06,m07c0716h02,m07c0716h23,m09ah02,m09ah04,m10ah05,m10ah23,m11ah20,m11ah23,m01ah24,m05ah05,m05ah22,m06ah06,m06ah22,m08ah05,m08ah06,m08ah20,m10ah01,m12ah02,m01ah20,m03ah05,m04ah03,m04ah19,m04ah21,m05ah23,m07ah24,m07c0716h03,m07c0716h21,m11ah24</v>
+        <v>m07ah03,m07ah21,m10ah03,m12ah05,m01ah23,m03ah02,m03ah24,m06ah24,m07ah05,m09ah03,m11ah22,m12ah24,m01ah03,m01ah21,m01b0121h19,m01b0121h24,m04ah24,m05ah21,m05ah24,m07ah02,m09ah23,m10ah04,m10ah22,m10ah24,m11ah03,m01b0121h03,m02ah20,m03ah23,m04ah22,m07c0716h22,m08ah01,m08ah23,m10ah02,m11ah01,m11ah04,m01b0121h22,m03ah22,m04ah05,m06ah04,m06ah19,m06ah20,m07c0716h04,m07c0716h24,m09ah20,m11ah19,m12ah22,m01b0121h04,m01b0121h06,m01b0121h21,m03ah06,m03ah21,m04ah02,m05ah01,m05ah06,m07c0716h06,m10ah06,m10ah19,m12ah01,m02ah03,m02ah04,m02ah22,m07ah01,m07ah20,m07c0716h01,m09ah22,m09ah24,m10ah21,m11ah02,m12ah20,m12ah23,m01ah20,m03ah05,m04ah03,m04ah19,m04ah21,m05ah23,m07ah24,m07c0716h03,m07c0716h21,m11ah24,m01b0121h02,m01b0121h05,m01b0121h20,m06ah03,m07ah04,m07c0716h19,m08ah02,m08ah03,m08ah21,m09ah05,m11ah05,m12ah21,m01ah24,m05ah05,m05ah22,m06ah06,m06ah22,m08ah05,m08ah06,m08ah20,m10ah01,m12ah02,m01ah02,m01ah19,m01ah22,m01b0121h23,m02ah05,m03ah01,m04ah23,m05ah04,m08ah04,m09ah01,m12ah06,m12ah19,m01ah01,m01ah05,m02ah23,m04ah01,m04ah04,m06ah02,m07ah06,m07c0716h02,m07c0716h23,m09ah02,m09ah04,m10ah05,m10ah23,m11ah20,m11ah23,m02ah02,m02ah19,m02ah21,m03ah20,m07ah19,m07ah23,m07c0716h20,m08ah19,m08ah22,m09ah06,m10ah20,m11ah06,m11ah21,m02ah01,m02ah24,m03ah19,m05ah02,m05ah19,m06ah21,m07c0716h05,m08ah24,m12ah03,m01ah04,m03ah04,m04ah20,m06ah05,m09ah19,m01ah06,m01b0121h01,m02ah06,m03ah03,m04ah06,m05ah03,m05ah20,m06ah01,m06ah23,m07ah22,m09ah21,m12ah04</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -2175,7 +2175,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>m01ah11,m01b0121h10,m03ah12,m04ah11,m04ah12,m06ah12,m06ah16,m07c0716h10,m07c0716h12,m08ah09,m09ah15,m11ah10,m12ah12,m01ah12,m01ah13,m01b0121h18,m04ah10,m04ah16,m05ah08,m06ah13,m07ah13,m09ah12,m10ah10,m10ah11,m11ah07,m01b0121h07,m03ah13,m07ah10,m07ah18,m07c0716h14,m08ah08,m08ah10,m11ah14,m12ah08,m03ah16,m04ah18,m05ah10,m07ah17,m07c0716h09,m12ah07,m01ah14,m01b0121h15,m01b0121h17,m02ah09,m02ah10,m02ah12,m03ah08,m03ah09,m05ah14,m07c0716h16,m11ah08,m11ah15,m12ah17,m01ah15,m01ah18,m01b0121h14,m02ah07,m04ah08,m04ah14,m05ah07,m05ah13,m07c0716h07,m07c0716h15,m08ah18,m10ah18,m12ah11,m03ah15,m04ah13,m06ah09,m07ah07,m07ah16,m09ah13,m01ah17,m02ah13,m05ah16,m06ah14,m07c0716h11,m09ah11,m09ah18,m10ah09,m10ah13,m11ah16,m12ah15,m01ah08,m02ah08,m02ah14,m03ah17,m05ah17,m06ah15,m07ah15,m08ah11,m09ah07,m09ah14,m01ah09,m01b0121h09,m01b0121h16,m02ah18,m03ah18,m05ah12,m05ah18,m07c0716h18,m08ah07,m10ah15,m11ah12,m12ah18,m01ah07,m02ah11,m05ah09,m05ah15,m07ah12,m09ah10,m11ah11,m11ah18,m12ah14,m01ah10,m01ah16,m03ah10,m03ah11,m04ah07,m06ah17,m08ah12,m11ah17,m12ah10,m12ah16,m01b0121h08,m02ah15,m04ah17,m07ah09,m07c0716h17,m10ah12,m10ah14,m11ah09,m11ah13,m01b0121h12,m03ah07,m05ah11,m06ah07,m06ah10,m06ah18,m07ah08,m08ah17,m09ah17,m10ah08,m01b0121h11,m02ah16,m02ah17,m06ah11,m07ah11,m07ah14,m07c0716h13,m08ah15,m08ah16,m12ah13,m01b0121h13,m03ah14,m04ah09,m04ah15,m06ah08,m07c0716h08,m08ah13,m08ah14,m09ah08,m09ah09,m09ah16,m10ah07,m10ah16,m10ah17,m12ah09</v>
+        <v>m01ah11,m01b0121h10,m03ah12,m04ah11,m04ah12,m06ah12,m06ah16,m07c0716h10,m07c0716h12,m08ah09,m09ah15,m11ah10,m12ah12,m01b0121h08,m02ah15,m04ah17,m07ah09,m07c0716h17,m10ah12,m10ah14,m11ah09,m11ah13,m01b0121h07,m03ah13,m07ah10,m07ah18,m07c0716h14,m08ah08,m08ah10,m11ah14,m12ah08,m01ah17,m02ah13,m05ah16,m06ah14,m07c0716h11,m09ah11,m09ah18,m10ah09,m10ah13,m11ah16,m12ah15,m01ah08,m02ah08,m02ah14,m03ah17,m05ah17,m06ah15,m07ah15,m08ah11,m09ah07,m09ah14,m01ah10,m01ah16,m03ah10,m03ah11,m04ah07,m06ah17,m08ah12,m11ah17,m12ah10,m12ah16,m01ah15,m01ah18,m01b0121h14,m02ah07,m04ah08,m04ah14,m05ah07,m05ah13,m07c0716h07,m07c0716h15,m08ah18,m10ah18,m12ah11,m01b0121h13,m03ah14,m04ah09,m04ah15,m06ah08,m07c0716h08,m08ah13,m08ah14,m09ah08,m09ah09,m09ah16,m10ah07,m10ah16,m10ah17,m12ah09,m01ah09,m01b0121h09,m01b0121h16,m02ah18,m03ah18,m05ah12,m05ah18,m07c0716h18,m08ah07,m10ah15,m11ah12,m12ah18,m01b0121h11,m02ah16,m02ah17,m06ah11,m07ah11,m07ah14,m07c0716h13,m08ah15,m08ah16,m12ah13,m01ah14,m01b0121h15,m01b0121h17,m02ah09,m02ah10,m02ah12,m03ah08,m03ah09,m05ah14,m07c0716h16,m11ah08,m11ah15,m12ah17,m01b0121h12,m03ah07,m05ah11,m06ah07,m06ah10,m06ah18,m07ah08,m08ah17,m09ah17,m10ah08,m03ah16,m04ah18,m05ah10,m07ah17,m07c0716h09,m12ah07,m03ah15,m04ah13,m06ah09,m07ah07,m07ah16,m09ah13,m01ah12,m01ah13,m01b0121h18,m04ah10,m04ah16,m05ah08,m06ah13,m07ah13,m09ah12,m10ah10,m10ah11,m11ah07,m01ah07,m02ah11,m05ah09,m05ah15,m07ah12,m09ah10,m11ah11,m11ah18,m12ah14</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2788,7 +2788,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F37A6F24-6676-4B4C-A3B1-4CCC043CD94A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{650C8EF5-E2D7-4D00-9CC5-5550A648E710}">
   <dimension ref="B2:F75"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3453,7 +3453,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23B6E1DA-B9BF-4D45-A628-8BBB89AF897C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C3A40F2-ACB5-4DFD-BC2B-55E52158A7AE}">
   <dimension ref="B2:O339"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3532,10 +3532,10 @@
         <v>168</v>
       </c>
       <c r="M4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="N4">
-        <v>0.13490282276723739</v>
+        <v>7.5520592318371119E-2</v>
       </c>
       <c r="O4" t="s">
         <v>516</v>
@@ -3567,10 +3567,10 @@
         <v>168</v>
       </c>
       <c r="M5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="N5">
-        <v>9.3706617306802395E-2</v>
+        <v>0.11449560388708931</v>
       </c>
       <c r="O5" t="s">
         <v>516</v>
@@ -3602,10 +3602,10 @@
         <v>168</v>
       </c>
       <c r="M6" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="N6">
-        <v>7.7845904673762151E-2</v>
+        <v>7.8956501619620548E-2</v>
       </c>
       <c r="O6" t="s">
         <v>516</v>
@@ -3637,10 +3637,10 @@
         <v>168</v>
       </c>
       <c r="M7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="N7">
-        <v>0.15187413234613606</v>
+        <v>0.13490282276723739</v>
       </c>
       <c r="O7" t="s">
         <v>516</v>
@@ -3672,10 +3672,10 @@
         <v>168</v>
       </c>
       <c r="M8" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="N8">
-        <v>0.13802637667746412</v>
+        <v>7.7845904673762151E-2</v>
       </c>
       <c r="O8" t="s">
         <v>516</v>
@@ -3707,10 +3707,10 @@
         <v>168</v>
       </c>
       <c r="M9" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="N9">
-        <v>9.2596020360944012E-2</v>
+        <v>9.3706617306802395E-2</v>
       </c>
       <c r="O9" t="s">
         <v>516</v>
@@ -3742,10 +3742,10 @@
         <v>168</v>
       </c>
       <c r="M10" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="N10">
-        <v>6.8752892179546499E-2</v>
+        <v>8.4821841739935219E-2</v>
       </c>
       <c r="O10" t="s">
         <v>516</v>
@@ -3777,10 +3777,10 @@
         <v>168</v>
       </c>
       <c r="M11" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="N11">
-        <v>7.5520592318371119E-2</v>
+        <v>8.8500694123091153E-2</v>
       </c>
       <c r="O11" t="s">
         <v>516</v>
@@ -3812,10 +3812,10 @@
         <v>168</v>
       </c>
       <c r="M12" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="N12">
-        <v>7.8956501619620548E-2</v>
+        <v>0.13802637667746412</v>
       </c>
       <c r="O12" t="s">
         <v>516</v>
@@ -3847,10 +3847,10 @@
         <v>168</v>
       </c>
       <c r="M13" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="N13">
-        <v>0.11449560388708931</v>
+        <v>9.2596020360944012E-2</v>
       </c>
       <c r="O13" t="s">
         <v>516</v>
@@ -3882,10 +3882,10 @@
         <v>168</v>
       </c>
       <c r="M14" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="N14">
-        <v>8.4821841739935219E-2</v>
+        <v>6.8752892179546499E-2</v>
       </c>
       <c r="O14" t="s">
         <v>516</v>
@@ -3917,10 +3917,10 @@
         <v>168</v>
       </c>
       <c r="M15" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="N15">
-        <v>8.8500694123091153E-2</v>
+        <v>0.15187413234613606</v>
       </c>
       <c r="O15" t="s">
         <v>516</v>
@@ -12356,7 +12356,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01506F37-C0FC-482C-B8C8-2EE01AD1B05C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30135234-EEFB-469F-8186-9F4966BCC260}">
   <dimension ref="B2:O647"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
